--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q545"/>
+  <dimension ref="A1:Q548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27369,6 +27369,155 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>355.54</v>
+      </c>
+      <c r="C546" t="n">
+        <v>359.28</v>
+      </c>
+      <c r="D546" t="n">
+        <v>364.3944444444445</v>
+      </c>
+      <c r="E546" t="n">
+        <v>359.99</v>
+      </c>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>353.04</v>
+      </c>
+      <c r="C547" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="D547" t="n">
+        <v>362.4188888888889</v>
+      </c>
+      <c r="E547" t="n">
+        <v>362.15</v>
+      </c>
+      <c r="F547" t="n">
+        <v>359.4988888888889</v>
+      </c>
+      <c r="G547" t="n">
+        <v>360.97</v>
+      </c>
+      <c r="H547" t="n">
+        <v>359.76</v>
+      </c>
+      <c r="I547" t="n">
+        <v>362.03</v>
+      </c>
+      <c r="J547" t="n">
+        <v>355.0228571428572</v>
+      </c>
+      <c r="K547" t="n">
+        <v>361.66</v>
+      </c>
+      <c r="L547" t="n">
+        <v>355.3988888888889</v>
+      </c>
+      <c r="M547" t="n">
+        <v>354.2088888888889</v>
+      </c>
+      <c r="N547" t="n">
+        <v>352.43</v>
+      </c>
+      <c r="O547" t="n">
+        <v>355.2128571428572</v>
+      </c>
+      <c r="P547" t="n">
+        <v>630.2128571428572</v>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>367.71</v>
+      </c>
+      <c r="C548" t="n">
+        <v>376.79</v>
+      </c>
+      <c r="D548" t="n">
+        <v>381.7633333333333</v>
+      </c>
+      <c r="E548" t="n">
+        <v>376.62</v>
+      </c>
+      <c r="F548" t="n">
+        <v>372.7833333333333</v>
+      </c>
+      <c r="G548" t="n">
+        <v>377.76</v>
+      </c>
+      <c r="H548" t="n">
+        <v>378.62</v>
+      </c>
+      <c r="I548" t="n">
+        <v>379.72</v>
+      </c>
+      <c r="J548" t="n">
+        <v>372.3585714285715</v>
+      </c>
+      <c r="K548" t="n">
+        <v>371.13</v>
+      </c>
+      <c r="L548" t="n">
+        <v>370.6533333333333</v>
+      </c>
+      <c r="M548" t="n">
+        <v>368.6733333333333</v>
+      </c>
+      <c r="N548" t="n">
+        <v>379.52</v>
+      </c>
+      <c r="O548" t="n">
+        <v>382.6885714285714</v>
+      </c>
+      <c r="P548" t="n">
+        <v>647.8085714285714</v>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27380,7 +27529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32968,6 +33117,36 @@
       </c>
       <c r="B558" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -33136,28 +33315,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.495873282577345</v>
+        <v>1.491276395420335</v>
       </c>
       <c r="J2" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K2" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L2" t="n">
-        <v>0.364008523185032</v>
+        <v>0.3657616578978483</v>
       </c>
       <c r="M2" t="n">
-        <v>11.13561338929545</v>
+        <v>11.10418920488002</v>
       </c>
       <c r="N2" t="n">
-        <v>200.5833580297544</v>
+        <v>199.4966131283958</v>
       </c>
       <c r="O2" t="n">
-        <v>14.162745426991</v>
+        <v>14.12432699736153</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9516564809264</v>
+        <v>323.9973167219284</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33213,28 +33392,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457802320633014</v>
+        <v>1.453178951064813</v>
       </c>
       <c r="J3" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3878318410176562</v>
+        <v>0.3890189438316464</v>
       </c>
       <c r="M3" t="n">
-        <v>10.17687243127443</v>
+        <v>10.17446890074154</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9489572591615</v>
+        <v>169.3965195734473</v>
       </c>
       <c r="O3" t="n">
-        <v>13.03644726369733</v>
+        <v>13.01524181770924</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1033333910391</v>
+        <v>330.1497690436391</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33290,28 +33469,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.327966205839086</v>
+        <v>1.323570472916469</v>
       </c>
       <c r="J4" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K4" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4168530149272217</v>
+        <v>0.4178808007679107</v>
       </c>
       <c r="M4" t="n">
-        <v>8.750261154298492</v>
+        <v>8.751674816444933</v>
       </c>
       <c r="N4" t="n">
-        <v>125.3892114037252</v>
+        <v>125.0749164429807</v>
       </c>
       <c r="O4" t="n">
-        <v>11.19773242240255</v>
+        <v>11.18368975083719</v>
       </c>
       <c r="P4" t="n">
-        <v>338.7853705885368</v>
+        <v>338.8293186220642</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33367,28 +33546,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.336716154415813</v>
+        <v>1.328494770449937</v>
       </c>
       <c r="J5" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K5" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4495136530745243</v>
+        <v>0.4491415462118666</v>
       </c>
       <c r="M5" t="n">
-        <v>8.269763611892877</v>
+        <v>8.270708965658592</v>
       </c>
       <c r="N5" t="n">
-        <v>111.2160639282049</v>
+        <v>110.9975853282906</v>
       </c>
       <c r="O5" t="n">
-        <v>10.54590270807601</v>
+        <v>10.53553915698151</v>
       </c>
       <c r="P5" t="n">
-        <v>337.7332896813847</v>
+        <v>337.8151313023661</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33444,28 +33623,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.251131609813564</v>
+        <v>1.249240549673442</v>
       </c>
       <c r="J6" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K6" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4298055673569248</v>
+        <v>0.4312748134372544</v>
       </c>
       <c r="M6" t="n">
-        <v>8.200646798861127</v>
+        <v>8.19234208148592</v>
       </c>
       <c r="N6" t="n">
-        <v>109.7452905612962</v>
+        <v>109.4265614642484</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47593864822127</v>
+        <v>10.46071515070783</v>
       </c>
       <c r="P6" t="n">
-        <v>336.1462084873796</v>
+        <v>336.1645437762513</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33521,28 +33700,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.167497809235686</v>
+        <v>1.167673603692531</v>
       </c>
       <c r="J7" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K7" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L7" t="n">
-        <v>0.378452889217159</v>
+        <v>0.3804259740078572</v>
       </c>
       <c r="M7" t="n">
-        <v>8.544908712632138</v>
+        <v>8.543914579876558</v>
       </c>
       <c r="N7" t="n">
-        <v>119.4026994548385</v>
+        <v>119.1478129489573</v>
       </c>
       <c r="O7" t="n">
-        <v>10.92715422490405</v>
+        <v>10.9154850075</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4950669352179</v>
+        <v>339.4932166242259</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33598,28 +33777,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.097799961441059</v>
+        <v>1.095002273700402</v>
       </c>
       <c r="J8" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3107743840807412</v>
+        <v>0.3110960519129889</v>
       </c>
       <c r="M8" t="n">
-        <v>9.37014638411501</v>
+        <v>9.370549619448676</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4152803998198</v>
+        <v>137.2234018232764</v>
       </c>
       <c r="O8" t="n">
-        <v>11.72242638705058</v>
+        <v>11.714239276337</v>
       </c>
       <c r="P8" t="n">
-        <v>344.2122517979911</v>
+        <v>344.2403807940395</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33675,28 +33854,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8611159075251417</v>
+        <v>0.8596893880979843</v>
       </c>
       <c r="J9" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K9" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2062023629877973</v>
+        <v>0.2068664824687505</v>
       </c>
       <c r="M9" t="n">
-        <v>9.498309645652437</v>
+        <v>9.495398255677104</v>
       </c>
       <c r="N9" t="n">
-        <v>145.1153599525841</v>
+        <v>144.8082107089194</v>
       </c>
       <c r="O9" t="n">
-        <v>12.04638368775394</v>
+        <v>12.03362832685634</v>
       </c>
       <c r="P9" t="n">
-        <v>350.4733068290083</v>
+        <v>350.4876838606509</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33752,28 +33931,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6434800103365309</v>
+        <v>0.6365943933715693</v>
       </c>
       <c r="J10" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1101711515884809</v>
+        <v>0.1087018899079123</v>
       </c>
       <c r="M10" t="n">
-        <v>10.42437070529915</v>
+        <v>10.41680353557885</v>
       </c>
       <c r="N10" t="n">
-        <v>171.4411556630181</v>
+        <v>171.2384449727375</v>
       </c>
       <c r="O10" t="n">
-        <v>13.09355397373143</v>
+        <v>13.08581082595716</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6478591756796</v>
+        <v>354.7171893483661</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33829,28 +34008,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4418899004732704</v>
+        <v>0.4383002240823592</v>
       </c>
       <c r="J11" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K11" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05270319332653317</v>
+        <v>0.05234166713682742</v>
       </c>
       <c r="M11" t="n">
-        <v>10.05736938794928</v>
+        <v>10.03104586556167</v>
       </c>
       <c r="N11" t="n">
-        <v>181.2606185965534</v>
+        <v>180.5830925106672</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46330637683602</v>
+        <v>13.43812086977444</v>
       </c>
       <c r="P11" t="n">
-        <v>358.957663116453</v>
+        <v>358.993589148206</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33906,28 +34085,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4265355507427696</v>
+        <v>0.4212233617820794</v>
       </c>
       <c r="J12" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K12" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04899086430074262</v>
+        <v>0.04818515473676432</v>
       </c>
       <c r="M12" t="n">
-        <v>10.35270318955422</v>
+        <v>10.33947457518729</v>
       </c>
       <c r="N12" t="n">
-        <v>182.6399243960667</v>
+        <v>182.199792967855</v>
       </c>
       <c r="O12" t="n">
-        <v>13.51443392806619</v>
+        <v>13.49814035220611</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8090425938057</v>
+        <v>357.8623168258862</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33983,28 +34162,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3265291223665282</v>
+        <v>0.3224200918600955</v>
       </c>
       <c r="J13" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K13" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02628364020689411</v>
+        <v>0.02586472215794311</v>
       </c>
       <c r="M13" t="n">
-        <v>10.7511823707961</v>
+        <v>10.73382818278536</v>
       </c>
       <c r="N13" t="n">
-        <v>207.0329936785486</v>
+        <v>206.3739021074442</v>
       </c>
       <c r="O13" t="n">
-        <v>14.38864113384404</v>
+        <v>14.36571968637298</v>
       </c>
       <c r="P13" t="n">
-        <v>357.3784004723672</v>
+        <v>357.4187960971321</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -34060,28 +34239,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5507964308009382</v>
+        <v>0.5502265701456046</v>
       </c>
       <c r="J14" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K14" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06328550120249032</v>
+        <v>0.06353611838734563</v>
       </c>
       <c r="M14" t="n">
-        <v>11.63963870507911</v>
+        <v>11.64867781917214</v>
       </c>
       <c r="N14" t="n">
-        <v>233.6519709365771</v>
+        <v>233.4101840326881</v>
       </c>
       <c r="O14" t="n">
-        <v>15.28567862204937</v>
+        <v>15.27776763904623</v>
       </c>
       <c r="P14" t="n">
-        <v>352.5909467945925</v>
+        <v>352.5964442205146</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -34137,28 +34316,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7438677566068942</v>
+        <v>0.7466651803464918</v>
       </c>
       <c r="J15" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K15" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1101087749314315</v>
+        <v>0.1114926825265231</v>
       </c>
       <c r="M15" t="n">
-        <v>11.95625881583343</v>
+        <v>11.964750418321</v>
       </c>
       <c r="N15" t="n">
-        <v>232.235455424405</v>
+        <v>232.0544906664088</v>
       </c>
       <c r="O15" t="n">
-        <v>15.23927345461079</v>
+        <v>15.23333485046557</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2563548745939</v>
+        <v>347.2283427344453</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -34208,28 +34387,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-4.230921810024784</v>
+        <v>-4.129851857500897</v>
       </c>
       <c r="J16" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K16" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1228291027061446</v>
+        <v>0.1184843760095309</v>
       </c>
       <c r="M16" t="n">
-        <v>56.77406587105827</v>
+        <v>56.47921750053081</v>
       </c>
       <c r="N16" t="n">
-        <v>6672.746514294317</v>
+        <v>6671.841534010488</v>
       </c>
       <c r="O16" t="n">
-        <v>81.68688091911893</v>
+        <v>81.68134140677715</v>
       </c>
       <c r="P16" t="n">
-        <v>665.6559132895289</v>
+        <v>664.6576468329356</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34266,7 +34445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q545"/>
+  <dimension ref="A1:Q548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73365,6 +73544,223 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-45.73634994876666,170.61698542862408</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-45.73685723885579,170.61751710753913</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-45.737343488094105,170.618051318283</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-45.737812828524305,170.6185821624296</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
+      <c r="H546" t="inlineStr"/>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
+      <c r="N546" t="inlineStr"/>
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-45.73636184519686,170.61695816872466</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-45.736874322252014,170.6174779620671</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-45.73735400390524,170.61803085468293</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-45.73779952170506,170.61860238833938</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-45.73823766540836,170.61922670093847</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-45.738655261498764,170.61989541653753</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-45.73908470624734,170.62054671679198</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-45.73948985188683,170.62123204257233</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-45.73995364937263,170.6218382930668</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-45.74032064557166,170.62256561975187</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-45.740754536081944,170.62320460127387</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>-45.74114381275616,170.62390511579565</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>-45.741537332727816,170.62460108008145</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>-45.74188506610064,170.62535091673448</t>
+        </is>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>-45.74034204076524,170.62828009958724</t>
+        </is>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-45.73629203684789,170.6171181296512</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-45.73677391546148,170.61770803678777</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-45.73725103395839,170.61823123190123</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-45.73771037823921,170.6187378829597</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-45.738152027331,170.6193457663058</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>-45.73854642939801,170.62004502404548</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-45.73896153432314,170.6207133914034</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-45.739373837968564,170.62138764719379</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>-45.739839238081615,170.62198967903564</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>-45.74025674830347,170.62264611010914</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>-45.740648659207686,170.623329318466</t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>-45.741042334599555,170.62402147175038</t>
+        </is>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>-45.74134505250708,170.62481498269264</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>-45.74169014574336,170.62556804525244</t>
+        </is>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>-45.74021871858853,170.62842186319855</t>
+        </is>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -33160,7 +33160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33251,35 +33251,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33338,27 +33343,28 @@
       <c r="P2" t="n">
         <v>323.9973167219284</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.613108520039 -45.73804174357622, 170.6226964704685 -45.73385734702143)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.613108520039</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.73804174357622</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.6226964704685</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.73385734702143</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.6179024952538</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.73594954529882</v>
       </c>
     </row>
@@ -33415,27 +33421,28 @@
       <c r="P3" t="n">
         <v>330.1497690436391</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.61359939039738 -45.73856684175165, 170.6231873800729 -45.734382430767)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.6135993903974</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.73856684175165</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.6231873800729</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.734382430767</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.6183933852352</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.73647463625932</v>
       </c>
     </row>
@@ -33492,27 +33499,28 @@
       <c r="P4" t="n">
         <v>338.8293186220642</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.61427664494178 -45.73928308165893, 170.6233841552268 -45.73460279168095)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.6142766449418</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.73928308165893</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.6233841552268</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.73460279168095</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.6188304000843</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.73694293666994</v>
       </c>
     </row>
@@ -33569,27 +33577,28 @@
       <c r="P5" t="n">
         <v>337.8151313023661</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.61521113697844 -45.740030516991574, 170.62344312770674 -45.7346144620201)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.6152111369784</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.74003051699157</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.6234431277067</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.7346144620201</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.6193271323426</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.73732248950584</v>
       </c>
     </row>
@@ -33646,27 +33655,28 @@
       <c r="P6" t="n">
         <v>336.1645437762513</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.61600445806465 -45.740555122111566, 170.62388346650195 -45.73488798030346)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.6160044580647</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.74055512211157</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.623883466502</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.73488798030346</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.6199439622833</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.73772155120751</v>
       </c>
     </row>
@@ -33723,27 +33733,28 @@
       <c r="P7" t="n">
         <v>339.4932166242259</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.61667884790944 -45.7409950037621, 170.62451186120956 -45.73529673346056)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.6166788479094</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.7409950037621</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.6245118612096</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.73529673346056</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.6205953545595</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.73814586861133</v>
       </c>
     </row>
@@ -33800,27 +33811,28 @@
       <c r="P8" t="n">
         <v>344.2403807940395</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.6173672092962 -45.741434196772296, 170.62513592565358 -45.73569300435845)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.6173672092962</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.7414341967723</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.6251359256536</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.73569300435845</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.6212515674749</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.73856360056537</v>
       </c>
     </row>
@@ -33877,27 +33889,28 @@
       <c r="P9" t="n">
         <v>350.4876838606509</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.61804741554866 -45.741864054067584, 170.62577979694086 -45.736098896685846)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.6180474155487</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.74186405406758</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.6257797969409</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.73609889668585</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.6219136062448</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.73898147537672</v>
       </c>
     </row>
@@ -33954,27 +33967,28 @@
       <c r="P10" t="n">
         <v>354.7171893483661</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.618737881784 -45.74229666232801, 170.62641428222776 -45.73649500280577)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.618737881784</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.74229666232801</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.6264142822278</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.73649500280577</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.6225760820059</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.73939583256688</v>
       </c>
     </row>
@@ -34031,27 +34045,28 @@
       <c r="P11" t="n">
         <v>358.993589148206</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.61949154903098 -45.74276084127944, 170.62696284110825 -45.73682960757528)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.619491549031</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.74276084127944</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.6269628411083</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.73682960757528</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.6232271950696</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.73979522442736</v>
       </c>
     </row>
@@ -34108,27 +34123,28 @@
       <c r="P12" t="n">
         <v>357.8623168258862</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.62029879894916 -45.74322121962077, 170.6274852663924 -45.73712021209239)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.6202987989492</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.74322121962077</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.6274852663924</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.73712021209239</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.6238920326708</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.74017071585658</v>
       </c>
     </row>
@@ -34185,27 +34201,28 @@
       <c r="P13" t="n">
         <v>357.4187960971321</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.62105562992159 -45.74362879478752, 170.62812637790097 -45.737461981024026)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.6210556299216</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.74362879478752</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.628126377901</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.73746198102403</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.6245910039113</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.74054538790577</v>
       </c>
     </row>
@@ -34262,27 +34279,28 @@
       <c r="P14" t="n">
         <v>352.5964442205146</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.62181815827586 -45.74403878131457, 170.62875846387348 -45.73779988246797)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.6218181582759</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.74403878131457</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.6287584638735</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.73779988246797</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.6252883110747</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.74091933189127</v>
       </c>
     </row>
@@ -34339,27 +34357,28 @@
       <c r="P15" t="n">
         <v>347.2283427344453</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (170.6225436881946 -45.74440500445502, 170.62948975719397 -45.73816923843374)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>170.6225436881946</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-45.74440500445502</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>170.629489757194</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-45.73816923843374</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>170.6260167226943</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-45.74128712144438</v>
       </c>
     </row>
@@ -34410,27 +34429,28 @@
       <c r="P16" t="n">
         <v>664.6576468329356</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (170.6232022413224 -45.744758855333984, 170.63028438139588 -45.73859841907578)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>170.6232022413224</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-45.74475885533398</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>170.6302843813959</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-45.73859841907578</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>170.6267433113591</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-45.74167863720488</v>
       </c>
     </row>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q548"/>
+  <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27518,6 +27518,367 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>372.14</v>
+      </c>
+      <c r="C549" t="n">
+        <v>370.49</v>
+      </c>
+      <c r="D549" t="n">
+        <v>379.5277777777778</v>
+      </c>
+      <c r="E549" t="n">
+        <v>376.73</v>
+      </c>
+      <c r="F549" t="n">
+        <v>370.2977777777778</v>
+      </c>
+      <c r="G549" t="n">
+        <v>372.38</v>
+      </c>
+      <c r="H549" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="I549" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="J549" t="n">
+        <v>364.9614285714285</v>
+      </c>
+      <c r="K549" t="n">
+        <v>366.7</v>
+      </c>
+      <c r="L549" t="n">
+        <v>366.7677777777778</v>
+      </c>
+      <c r="M549" t="n">
+        <v>359.4677777777778</v>
+      </c>
+      <c r="N549" t="n">
+        <v>371.82</v>
+      </c>
+      <c r="O549" t="n">
+        <v>381.1214285714286</v>
+      </c>
+      <c r="P549" t="n">
+        <v>635.1114285714285</v>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="C550" t="n">
+        <v>376.65</v>
+      </c>
+      <c r="D550" t="n">
+        <v>382.8922222222222</v>
+      </c>
+      <c r="E550" t="n">
+        <v>377.87</v>
+      </c>
+      <c r="F550" t="n">
+        <v>374.0422222222222</v>
+      </c>
+      <c r="G550" t="n">
+        <v>380.57</v>
+      </c>
+      <c r="H550" t="n">
+        <v>380.17</v>
+      </c>
+      <c r="I550" t="n">
+        <v>381.79</v>
+      </c>
+      <c r="J550" t="n">
+        <v>374.64</v>
+      </c>
+      <c r="K550" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="L550" t="n">
+        <v>368.3022222222222</v>
+      </c>
+      <c r="M550" t="n">
+        <v>369.0122222222223</v>
+      </c>
+      <c r="N550" t="n">
+        <v>383.81</v>
+      </c>
+      <c r="O550" t="n">
+        <v>394.77</v>
+      </c>
+      <c r="P550" t="n">
+        <v>647.79</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>347.11</v>
+      </c>
+      <c r="C551" t="n">
+        <v>350.36</v>
+      </c>
+      <c r="D551" t="n">
+        <v>356.6488888888889</v>
+      </c>
+      <c r="E551" t="n">
+        <v>354.65</v>
+      </c>
+      <c r="F551" t="n">
+        <v>348.9588888888889</v>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>373.8</v>
+      </c>
+      <c r="C552" t="n">
+        <v>375.27</v>
+      </c>
+      <c r="D552" t="n">
+        <v>379.5666666666667</v>
+      </c>
+      <c r="E552" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="F552" t="n">
+        <v>372.1366666666667</v>
+      </c>
+      <c r="G552" t="n">
+        <v>374.29</v>
+      </c>
+      <c r="H552" t="n">
+        <v>380.59</v>
+      </c>
+      <c r="I552" t="n">
+        <v>383.39</v>
+      </c>
+      <c r="J552" t="n">
+        <v>375.2814285714285</v>
+      </c>
+      <c r="K552" t="n">
+        <v>373.68</v>
+      </c>
+      <c r="L552" t="n">
+        <v>372.7866666666667</v>
+      </c>
+      <c r="M552" t="n">
+        <v>372.1066666666667</v>
+      </c>
+      <c r="N552" t="n">
+        <v>375.18</v>
+      </c>
+      <c r="O552" t="n">
+        <v>379.8914285714285</v>
+      </c>
+      <c r="P552" t="n">
+        <v>629.0914285714285</v>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>372.55</v>
+      </c>
+      <c r="C553" t="n">
+        <v>370.71</v>
+      </c>
+      <c r="D553" t="n">
+        <v>375.6733333333333</v>
+      </c>
+      <c r="E553" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="F553" t="n">
+        <v>370.7933333333333</v>
+      </c>
+      <c r="G553" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="H553" t="n">
+        <v>379.89</v>
+      </c>
+      <c r="I553" t="n">
+        <v>379.86</v>
+      </c>
+      <c r="J553" t="n">
+        <v>373.2242857142857</v>
+      </c>
+      <c r="K553" t="n">
+        <v>372.58</v>
+      </c>
+      <c r="L553" t="n">
+        <v>368.7133333333333</v>
+      </c>
+      <c r="M553" t="n">
+        <v>367.2533333333333</v>
+      </c>
+      <c r="N553" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="O553" t="n">
+        <v>377.7542857142857</v>
+      </c>
+      <c r="P553" t="n">
+        <v>625.6442857142856</v>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>355.46</v>
+      </c>
+      <c r="C554" t="n">
+        <v>357.56</v>
+      </c>
+      <c r="D554" t="n">
+        <v>362.7722222222222</v>
+      </c>
+      <c r="E554" t="n">
+        <v>357.12</v>
+      </c>
+      <c r="F554" t="n">
+        <v>355.2022222222222</v>
+      </c>
+      <c r="G554" t="n">
+        <v>356.91</v>
+      </c>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr"/>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>369.62</v>
+      </c>
+      <c r="C555" t="n">
+        <v>375.59</v>
+      </c>
+      <c r="D555" t="n">
+        <v>380.7188888888889</v>
+      </c>
+      <c r="E555" t="n">
+        <v>379.31</v>
+      </c>
+      <c r="F555" t="n">
+        <v>375.2788888888889</v>
+      </c>
+      <c r="G555" t="n">
+        <v>377.06</v>
+      </c>
+      <c r="H555" t="n">
+        <v>384.93</v>
+      </c>
+      <c r="I555" t="n">
+        <v>382.23</v>
+      </c>
+      <c r="J555" t="n">
+        <v>380.4514285714286</v>
+      </c>
+      <c r="K555" t="n">
+        <v>374.85</v>
+      </c>
+      <c r="L555" t="n">
+        <v>377.4488888888889</v>
+      </c>
+      <c r="M555" t="n">
+        <v>377.3588888888889</v>
+      </c>
+      <c r="N555" t="n">
+        <v>382.82</v>
+      </c>
+      <c r="O555" t="n">
+        <v>391.5814285714285</v>
+      </c>
+      <c r="P555" t="n">
+        <v>653.3714285714285</v>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27529,7 +27890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33147,6 +33508,76 @@
       </c>
       <c r="B561" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -33320,28 +33751,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.491276395420335</v>
+        <v>1.504636266910947</v>
       </c>
       <c r="J2" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K2" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3657616578978483</v>
+        <v>0.3761171114042668</v>
       </c>
       <c r="M2" t="n">
-        <v>11.10418920488002</v>
+        <v>11.09244157613035</v>
       </c>
       <c r="N2" t="n">
-        <v>199.4966131283958</v>
+        <v>198.0449937765296</v>
       </c>
       <c r="O2" t="n">
-        <v>14.12432699736153</v>
+        <v>14.07284597288443</v>
       </c>
       <c r="P2" t="n">
-        <v>323.9973167219284</v>
+        <v>323.8626253906222</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33398,28 +33829,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.453178951064813</v>
+        <v>1.455537679928552</v>
       </c>
       <c r="J3" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3890189438316464</v>
+        <v>0.3961680921541967</v>
       </c>
       <c r="M3" t="n">
-        <v>10.17446890074154</v>
+        <v>10.14349759701276</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3965195734473</v>
+        <v>168.0607564485972</v>
       </c>
       <c r="O3" t="n">
-        <v>13.01524181770924</v>
+        <v>12.96382491584167</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1497690436391</v>
+        <v>330.1256375794304</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33476,28 +33907,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.323570472916469</v>
+        <v>1.327730517804262</v>
       </c>
       <c r="J4" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4178808007679107</v>
+        <v>0.425312364094142</v>
       </c>
       <c r="M4" t="n">
-        <v>8.751674816444933</v>
+        <v>8.750929305311622</v>
       </c>
       <c r="N4" t="n">
-        <v>125.0749164429807</v>
+        <v>124.4715923290712</v>
       </c>
       <c r="O4" t="n">
-        <v>11.18368975083719</v>
+        <v>11.15668375141427</v>
       </c>
       <c r="P4" t="n">
-        <v>338.8293186220642</v>
+        <v>338.786998498511</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33554,28 +33985,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.328494770449937</v>
+        <v>1.325569144445971</v>
       </c>
       <c r="J5" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K5" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4491415462118666</v>
+        <v>0.453777726877775</v>
       </c>
       <c r="M5" t="n">
-        <v>8.270708965658592</v>
+        <v>8.270644625070329</v>
       </c>
       <c r="N5" t="n">
-        <v>110.9975853282906</v>
+        <v>110.7066880024791</v>
       </c>
       <c r="O5" t="n">
-        <v>10.53553915698151</v>
+        <v>10.52172457358959</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8151313023661</v>
+        <v>337.8447067277426</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33632,28 +34063,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.249240549673442</v>
+        <v>1.244081715612509</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K6" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4312748134372544</v>
+        <v>0.4350256223375244</v>
       </c>
       <c r="M6" t="n">
-        <v>8.19234208148592</v>
+        <v>8.18393511744603</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4265614642484</v>
+        <v>109.1329165420714</v>
       </c>
       <c r="O6" t="n">
-        <v>10.46071515070783</v>
+        <v>10.44667011741404</v>
       </c>
       <c r="P6" t="n">
-        <v>336.1645437762513</v>
+        <v>336.2151972902273</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33710,28 +34141,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.167673603692531</v>
+        <v>1.175342708778893</v>
       </c>
       <c r="J7" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K7" t="n">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3804259740078572</v>
+        <v>0.3894098126675702</v>
       </c>
       <c r="M7" t="n">
-        <v>8.543914579876558</v>
+        <v>8.514668348221349</v>
       </c>
       <c r="N7" t="n">
-        <v>119.1478129489573</v>
+        <v>118.281831512203</v>
       </c>
       <c r="O7" t="n">
-        <v>10.9154850075</v>
+        <v>10.87574510147249</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4932166242259</v>
+        <v>339.4180189070628</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33788,28 +34219,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.095002273700402</v>
+        <v>1.111501156369095</v>
       </c>
       <c r="J8" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3110960519129889</v>
+        <v>0.3216646696371089</v>
       </c>
       <c r="M8" t="n">
-        <v>9.370549619448676</v>
+        <v>9.345752624008695</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2234018232764</v>
+        <v>136.4099107226796</v>
       </c>
       <c r="O8" t="n">
-        <v>11.714239276337</v>
+        <v>11.67946534404206</v>
       </c>
       <c r="P8" t="n">
-        <v>344.2403807940395</v>
+        <v>344.0722285059821</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33866,28 +34297,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8596893880979843</v>
+        <v>0.8774596854637099</v>
       </c>
       <c r="J9" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K9" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2068664824687505</v>
+        <v>0.2169182490545891</v>
       </c>
       <c r="M9" t="n">
-        <v>9.495398255677104</v>
+        <v>9.467535302534886</v>
       </c>
       <c r="N9" t="n">
-        <v>144.8082107089194</v>
+        <v>143.9185571227183</v>
       </c>
       <c r="O9" t="n">
-        <v>12.03362832685634</v>
+        <v>11.99660606683066</v>
       </c>
       <c r="P9" t="n">
-        <v>350.4876838606509</v>
+        <v>350.3054674711173</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33944,28 +34375,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6365943933715693</v>
+        <v>0.6428285179626503</v>
       </c>
       <c r="J10" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K10" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1087018899079123</v>
+        <v>0.1128416108911467</v>
       </c>
       <c r="M10" t="n">
-        <v>10.41680353557885</v>
+        <v>10.35438255770298</v>
       </c>
       <c r="N10" t="n">
-        <v>171.2384449727375</v>
+        <v>169.6360829608798</v>
       </c>
       <c r="O10" t="n">
-        <v>13.08581082595716</v>
+        <v>13.02444175237003</v>
       </c>
       <c r="P10" t="n">
-        <v>354.7171893483661</v>
+        <v>354.6536404243644</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34022,28 +34453,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4383002240823592</v>
+        <v>0.4413801689567234</v>
       </c>
       <c r="J11" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05234166713682742</v>
+        <v>0.05427101273805945</v>
       </c>
       <c r="M11" t="n">
-        <v>10.03104586556167</v>
+        <v>9.948811280503211</v>
       </c>
       <c r="N11" t="n">
-        <v>180.5830925106672</v>
+        <v>178.610184456907</v>
       </c>
       <c r="O11" t="n">
-        <v>13.43812086977444</v>
+        <v>13.36451212940102</v>
       </c>
       <c r="P11" t="n">
-        <v>358.993589148206</v>
+        <v>358.9623492190534</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34100,28 +34531,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4212233617820794</v>
+        <v>0.4262351597747707</v>
       </c>
       <c r="J12" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04818515473676432</v>
+        <v>0.05039553927523421</v>
       </c>
       <c r="M12" t="n">
-        <v>10.33947457518729</v>
+        <v>10.25444940671802</v>
       </c>
       <c r="N12" t="n">
-        <v>182.199792967855</v>
+        <v>180.3015324189618</v>
       </c>
       <c r="O12" t="n">
-        <v>13.49814035220611</v>
+        <v>13.42764061251871</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8623168258862</v>
+        <v>357.8114006686552</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34178,28 +34609,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3224200918600955</v>
+        <v>0.330450067242125</v>
       </c>
       <c r="J13" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K13" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02586472215794311</v>
+        <v>0.02775703657315676</v>
       </c>
       <c r="M13" t="n">
-        <v>10.73382818278536</v>
+        <v>10.67548181970071</v>
       </c>
       <c r="N13" t="n">
-        <v>206.3739021074442</v>
+        <v>204.4622899150036</v>
       </c>
       <c r="O13" t="n">
-        <v>14.36571968637298</v>
+        <v>14.29903108308404</v>
       </c>
       <c r="P13" t="n">
-        <v>357.4187960971321</v>
+        <v>357.3388116541482</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34256,28 +34687,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5502265701456046</v>
+        <v>0.5745855719261758</v>
       </c>
       <c r="J14" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K14" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06353611838734563</v>
+        <v>0.07007422446368516</v>
       </c>
       <c r="M14" t="n">
-        <v>11.64867781917214</v>
+        <v>11.63141444871848</v>
       </c>
       <c r="N14" t="n">
-        <v>233.4101840326881</v>
+        <v>232.2002902486097</v>
       </c>
       <c r="O14" t="n">
-        <v>15.27776763904623</v>
+        <v>15.23811964281058</v>
       </c>
       <c r="P14" t="n">
-        <v>352.5964442205146</v>
+        <v>352.3504369522764</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34334,28 +34765,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7466651803464918</v>
+        <v>0.7921984169073569</v>
       </c>
       <c r="J15" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K15" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1114926825265231</v>
+        <v>0.1244790908462921</v>
       </c>
       <c r="M15" t="n">
-        <v>11.964750418321</v>
+        <v>12.04165686961106</v>
       </c>
       <c r="N15" t="n">
-        <v>232.0544906664088</v>
+        <v>233.8746475087601</v>
       </c>
       <c r="O15" t="n">
-        <v>15.23333485046557</v>
+        <v>15.29296071755761</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2283427344453</v>
+        <v>346.7726528790331</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34406,28 +34837,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-4.129851857500897</v>
+        <v>-3.890882675411988</v>
       </c>
       <c r="J16" t="n">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="K16" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1184843760095309</v>
+        <v>0.108418841915999</v>
       </c>
       <c r="M16" t="n">
-        <v>56.47921750053081</v>
+        <v>55.75941448907567</v>
       </c>
       <c r="N16" t="n">
-        <v>6671.841534010488</v>
+        <v>6663.366348803193</v>
       </c>
       <c r="O16" t="n">
-        <v>81.68134140677715</v>
+        <v>81.62944535400931</v>
       </c>
       <c r="P16" t="n">
-        <v>664.6576468329356</v>
+        <v>662.2805903839676</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34465,7 +34896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q548"/>
+  <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73781,6 +74212,539 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-45.73627095629863,170.61716643406638</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-45.73680389479061,170.61763934157725</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-45.737262933778055,170.61820807519172</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-45.73770970057572,170.61873891297935</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-45.738168050457425,170.61932348888064</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-45.73858130236317,170.61999708555066</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-45.739009666755045,170.6206482593654</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-45.73941620373328,170.62133082387385</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-45.73988805736337,170.62192508277474</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-45.7402866390078,170.62260845730395</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-45.7406756277867,170.6232975510101</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>-45.74110691800109,170.62394741978807</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>-45.74139970584413,170.6247541836514</t>
+        </is>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>-45.741701263502634,170.6255556608508</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>-45.740307708419074,170.62831956603208</t>
+        </is>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-45.736266388050396,170.61717690183556</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-45.73677458166927,170.61770651022832</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-45.73724502490244,170.6182429253453</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>-45.73770267751716,170.618749587727</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>-45.73814391190577,170.61935704941345</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>-45.738528215071256,170.6200700625292</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>-45.73895141148641,170.62072708944328</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>-45.73936026255459,170.62140585526723</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>-45.73982418121914,170.62200960180706</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>-45.740265047529725,170.6226356557226</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>-45.74066497762839,170.62331009629733</t>
+        </is>
+      </c>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>-45.74103995705632,170.62402419786036</t>
+        </is>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>-45.74131460277545,170.6248488563923</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>-45.74160443658747,170.62566351900085</t>
+        </is>
+      </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>-45.74021884874925,170.62842171357423</t>
+        </is>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-45.73639006350225,170.6168935081976</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-45.736899685597315,170.61741984353736</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-45.73738471738561,170.6179710866555</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>-45.73784572592221,170.61853215944473</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-45.738305611349645,170.61913223312516</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr"/>
+      <c r="H551" t="inlineStr"/>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr"/>
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-45.73626305703543,170.6171845345829</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-45.73678114857339,170.6176914627119</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-45.737262726773295,170.61820847801727</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-45.73771764771966,170.6187268336564</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-45.73815619606617,170.6193399703922</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-45.73856892181482,170.62001410461423</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>-45.73894866852388,170.62073080116934</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>-45.73934976947886,170.6214199291344</t>
+        </is>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>-45.739819947949066,170.6220152031354</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>-45.74023954258725,170.6226677838275</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>-45.74063385232008,170.62334676012162</t>
+        </is>
+      </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>-45.741018247355,170.62404909036218</t>
+        </is>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>-45.74137585711956,170.62478071415683</t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>-45.7417099894731,170.625545940729</t>
+        </is>
+      </c>
+      <c r="P552" t="inlineStr">
+        <is>
+          <t>-45.74034990045746,170.62827106453838</t>
+        </is>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-45.73626900527607,170.61717090467633</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-45.73680284789413,170.61764174045885</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-45.73728345090094,170.61816814941062</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>-45.7377148754603,170.6187310473741</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>-45.7381648558604,170.61932793042462</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>-45.738591867959904,170.6199825614224</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>-45.738953240128,170.62072461495902</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>-45.73937291982473,170.62138887865797</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>-45.739833524582586,170.62199723896143</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>-45.74024696466146,170.622658434382</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>-45.7406621242186,170.6233134574524</t>
+        </is>
+      </c>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>-45.74105229689471,170.62401004890006</t>
+        </is>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>-45.74139977682246,170.62475410469153</t>
+        </is>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>-45.74172515097136,170.62552905186902</t>
+        </is>
+      </c>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>-45.74037406024538,170.6282432918179</t>
+        </is>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-45.73635032945253,170.61698455630747</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-45.73686542366019,170.6174983526084</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-45.73735212312489,170.61803451465246</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>-45.73783050933843,170.6185552881735</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>-45.738265363811315,170.6191881908424</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>-45.73868157822306,170.61985923976863</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr"/>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-45.736282947945504,170.61713895616418</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-45.7367796258132,170.61769495199135</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-45.737256593516896,170.61822041316142</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>-45.737693806283765,170.61876307161495</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>-45.73813593973492,170.61936813334566</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>-45.73855096677389,170.62003878669825</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>-45.73892032457033,170.62076915565075</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>-45.73935737695896,170.62140972558123</t>
+        </is>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>-45.739785827215734,170.62206035055902</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>-45.740231648198325,170.62267772823498</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>-45.74060149309112,170.62338487737418</t>
+        </is>
+      </c>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>-45.74098139931345,170.6240913405353</t>
+        </is>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>-45.74132162963756,170.624841039388</t>
+        </is>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>-45.74162705724578,170.62563832127535</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t>-45.740179730438406,170.6284666814085</t>
+        </is>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q555"/>
+  <dimension ref="A1:Q557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27879,6 +27879,118 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>370.79</v>
+      </c>
+      <c r="C556" t="n">
+        <v>377.97</v>
+      </c>
+      <c r="D556" t="n">
+        <v>379.1566666666667</v>
+      </c>
+      <c r="E556" t="n">
+        <v>381.23</v>
+      </c>
+      <c r="F556" t="n">
+        <v>373.0966666666667</v>
+      </c>
+      <c r="G556" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="H556" t="n">
+        <v>385.64</v>
+      </c>
+      <c r="I556" t="n">
+        <v>379.13</v>
+      </c>
+      <c r="J556" t="n">
+        <v>380.8157142857143</v>
+      </c>
+      <c r="K556" t="n">
+        <v>374.37</v>
+      </c>
+      <c r="L556" t="n">
+        <v>376.7866666666667</v>
+      </c>
+      <c r="M556" t="n">
+        <v>376.6666666666667</v>
+      </c>
+      <c r="N556" t="n">
+        <v>383.71</v>
+      </c>
+      <c r="O556" t="n">
+        <v>392.3657142857143</v>
+      </c>
+      <c r="P556" t="n">
+        <v>651.9857142857144</v>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>361.48</v>
+      </c>
+      <c r="C557" t="n">
+        <v>359.86</v>
+      </c>
+      <c r="D557" t="n">
+        <v>369.5388888888889</v>
+      </c>
+      <c r="E557" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="F557" t="n">
+        <v>364.5688888888889</v>
+      </c>
+      <c r="G557" t="n">
+        <v>360.68</v>
+      </c>
+      <c r="H557" t="n">
+        <v>362.76</v>
+      </c>
+      <c r="I557" t="n">
+        <v>365.97</v>
+      </c>
+      <c r="J557" t="n">
+        <v>368.4014285714285</v>
+      </c>
+      <c r="K557" t="n">
+        <v>373.34</v>
+      </c>
+      <c r="L557" t="n">
+        <v>373.3188888888889</v>
+      </c>
+      <c r="M557" t="n">
+        <v>367.6188888888889</v>
+      </c>
+      <c r="N557" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="O557" t="n">
+        <v>365.9014285714285</v>
+      </c>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27890,7 +28002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B568"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33578,6 +33690,26 @@
       </c>
       <c r="B568" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -33751,28 +33883,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.504636266910947</v>
+        <v>1.507968956005923</v>
       </c>
       <c r="J2" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K2" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3761171114042668</v>
+        <v>0.3793177930019669</v>
       </c>
       <c r="M2" t="n">
-        <v>11.09244157613035</v>
+        <v>11.06278279399045</v>
       </c>
       <c r="N2" t="n">
-        <v>198.0449937765296</v>
+        <v>197.2761322985733</v>
       </c>
       <c r="O2" t="n">
-        <v>14.07284597288443</v>
+        <v>14.04550220884157</v>
       </c>
       <c r="P2" t="n">
-        <v>323.8626253906222</v>
+        <v>323.828909543211</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33829,28 +33961,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.455537679928552</v>
+        <v>1.456777275631087</v>
       </c>
       <c r="J3" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3961680921541967</v>
+        <v>0.398379690199087</v>
       </c>
       <c r="M3" t="n">
-        <v>10.14349759701276</v>
+        <v>10.13791675873926</v>
       </c>
       <c r="N3" t="n">
-        <v>168.0607564485972</v>
+        <v>167.667296028253</v>
       </c>
       <c r="O3" t="n">
-        <v>12.96382491584167</v>
+        <v>12.9486407019522</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1256375794304</v>
+        <v>330.1130358134113</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33907,28 +34039,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.327730517804262</v>
+        <v>1.329065781835572</v>
       </c>
       <c r="J4" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.425312364094142</v>
+        <v>0.4280472740844191</v>
       </c>
       <c r="M4" t="n">
-        <v>8.750929305311622</v>
+        <v>8.732276163369846</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4715923290712</v>
+        <v>123.9945834916382</v>
       </c>
       <c r="O4" t="n">
-        <v>11.15668375141427</v>
+        <v>11.13528551459899</v>
       </c>
       <c r="P4" t="n">
-        <v>338.786998498511</v>
+        <v>338.7734040711638</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33985,28 +34117,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.325569144445971</v>
+        <v>1.327407235275892</v>
       </c>
       <c r="J5" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.453777726877775</v>
+        <v>0.4564281321629073</v>
       </c>
       <c r="M5" t="n">
-        <v>8.270644625070329</v>
+        <v>8.266685791135735</v>
       </c>
       <c r="N5" t="n">
-        <v>110.7066880024791</v>
+        <v>110.4544229068919</v>
       </c>
       <c r="O5" t="n">
-        <v>10.52172457358959</v>
+        <v>10.50972991598223</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8447067277426</v>
+        <v>337.8261616431027</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34063,28 +34195,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.244081715612509</v>
+        <v>1.244670896420947</v>
       </c>
       <c r="J6" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K6" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4350256223375244</v>
+        <v>0.4376768105092529</v>
       </c>
       <c r="M6" t="n">
-        <v>8.18393511744603</v>
+        <v>8.164667236787679</v>
       </c>
       <c r="N6" t="n">
-        <v>109.1329165420714</v>
+        <v>108.6851204413066</v>
       </c>
       <c r="O6" t="n">
-        <v>10.44667011741404</v>
+        <v>10.42521560646621</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2151972902273</v>
+        <v>336.2094454066897</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34141,28 +34273,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.175342708778893</v>
+        <v>1.176211513274062</v>
       </c>
       <c r="J7" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K7" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3894098126675702</v>
+        <v>0.3913005624927284</v>
       </c>
       <c r="M7" t="n">
-        <v>8.514668348221349</v>
+        <v>8.521549395083818</v>
       </c>
       <c r="N7" t="n">
-        <v>118.281831512203</v>
+        <v>118.1861875220728</v>
       </c>
       <c r="O7" t="n">
-        <v>10.87574510147249</v>
+        <v>10.871347088658</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4180189070628</v>
+        <v>339.4095990624573</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34219,28 +34351,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.111501156369095</v>
+        <v>1.11288998052954</v>
       </c>
       <c r="J8" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3216646696371089</v>
+        <v>0.3233460153839836</v>
       </c>
       <c r="M8" t="n">
-        <v>9.345752624008695</v>
+        <v>9.355531880248659</v>
       </c>
       <c r="N8" t="n">
-        <v>136.4099107226796</v>
+        <v>136.3988277975321</v>
       </c>
       <c r="O8" t="n">
-        <v>11.67946534404206</v>
+        <v>11.67899087239698</v>
       </c>
       <c r="P8" t="n">
-        <v>344.0722285059821</v>
+        <v>344.0581852916463</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34297,28 +34429,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8774596854637099</v>
+        <v>0.8771350431762712</v>
       </c>
       <c r="J9" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2169182490545891</v>
+        <v>0.2182210883017771</v>
       </c>
       <c r="M9" t="n">
-        <v>9.467535302534886</v>
+        <v>9.45435263965201</v>
       </c>
       <c r="N9" t="n">
-        <v>143.9185571227183</v>
+        <v>143.4538886543081</v>
       </c>
       <c r="O9" t="n">
-        <v>11.99660606683066</v>
+        <v>11.97722374568949</v>
       </c>
       <c r="P9" t="n">
-        <v>350.3054674711173</v>
+        <v>350.3089076838235</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34375,28 +34507,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6428285179626503</v>
+        <v>0.6459485511798323</v>
       </c>
       <c r="J10" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K10" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1128416108911467</v>
+        <v>0.1146639658608309</v>
       </c>
       <c r="M10" t="n">
-        <v>10.35438255770298</v>
+        <v>10.33485510215054</v>
       </c>
       <c r="N10" t="n">
-        <v>169.6360829608798</v>
+        <v>169.0899712984475</v>
       </c>
       <c r="O10" t="n">
-        <v>13.02444175237003</v>
+        <v>13.00345997411641</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6536404243644</v>
+        <v>354.6218682048618</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34453,28 +34585,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4413801689567234</v>
+        <v>0.4446370906794078</v>
       </c>
       <c r="J11" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K11" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05427101273805945</v>
+        <v>0.05552673812122844</v>
       </c>
       <c r="M11" t="n">
-        <v>9.948811280503211</v>
+        <v>9.920106899682926</v>
       </c>
       <c r="N11" t="n">
-        <v>178.610184456907</v>
+        <v>177.8452522819238</v>
       </c>
       <c r="O11" t="n">
-        <v>13.36451212940102</v>
+        <v>13.33586338719484</v>
       </c>
       <c r="P11" t="n">
-        <v>358.9623492190534</v>
+        <v>358.9292925162139</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34531,28 +34663,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4262351597747707</v>
+        <v>0.4320142217639376</v>
       </c>
       <c r="J12" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K12" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05039553927523421</v>
+        <v>0.05212839131584412</v>
       </c>
       <c r="M12" t="n">
-        <v>10.25444940671802</v>
+        <v>10.23636537459748</v>
       </c>
       <c r="N12" t="n">
-        <v>180.3015324189618</v>
+        <v>179.6592343696377</v>
       </c>
       <c r="O12" t="n">
-        <v>13.42764061251871</v>
+        <v>13.40370226354039</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8114006686552</v>
+        <v>357.7526178905123</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34609,28 +34741,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.330450067242125</v>
+        <v>0.3363921129369451</v>
       </c>
       <c r="J13" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K13" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02775703657315676</v>
+        <v>0.02898367776104493</v>
       </c>
       <c r="M13" t="n">
-        <v>10.67548181970071</v>
+        <v>10.65422231561251</v>
       </c>
       <c r="N13" t="n">
-        <v>204.4622899150036</v>
+        <v>203.7778576326961</v>
       </c>
       <c r="O13" t="n">
-        <v>14.29903108308404</v>
+        <v>14.27507820058076</v>
       </c>
       <c r="P13" t="n">
-        <v>357.3388116541482</v>
+        <v>357.2795778628546</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34687,28 +34819,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5745855719261758</v>
+        <v>0.5779265845733134</v>
       </c>
       <c r="J14" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K14" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07007422446368516</v>
+        <v>0.07124217576415359</v>
       </c>
       <c r="M14" t="n">
-        <v>11.63141444871848</v>
+        <v>11.63771595673808</v>
       </c>
       <c r="N14" t="n">
-        <v>232.2002902486097</v>
+        <v>231.9594517845647</v>
       </c>
       <c r="O14" t="n">
-        <v>15.23811964281058</v>
+        <v>15.23021509318121</v>
       </c>
       <c r="P14" t="n">
-        <v>352.3504369522764</v>
+        <v>352.3167244426624</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34765,28 +34897,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7921984169073569</v>
+        <v>0.8037859470222585</v>
       </c>
       <c r="J15" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K15" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1244790908462921</v>
+        <v>0.1281126354155231</v>
       </c>
       <c r="M15" t="n">
-        <v>12.04165686961106</v>
+        <v>12.0473388263377</v>
       </c>
       <c r="N15" t="n">
-        <v>233.8746475087601</v>
+        <v>234.2780075967072</v>
       </c>
       <c r="O15" t="n">
-        <v>15.29296071755761</v>
+        <v>15.30614280596869</v>
       </c>
       <c r="P15" t="n">
-        <v>346.7726528790331</v>
+        <v>346.6563100007032</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34837,28 +34969,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-3.890882675411988</v>
+        <v>-3.836999225084083</v>
       </c>
       <c r="J16" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K16" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.108418841915999</v>
+        <v>0.1060213350499045</v>
       </c>
       <c r="M16" t="n">
-        <v>55.75941448907567</v>
+        <v>55.62297000835172</v>
       </c>
       <c r="N16" t="n">
-        <v>6663.366348803193</v>
+        <v>6667.297990134961</v>
       </c>
       <c r="O16" t="n">
-        <v>81.62944535400931</v>
+        <v>81.65352405214952</v>
       </c>
       <c r="P16" t="n">
-        <v>662.2805903839676</v>
+        <v>661.7427292493617</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34896,7 +35028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q555"/>
+  <dimension ref="A1:Q557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74745,6 +74877,176 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-45.73627738039603,170.61715171376306</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-45.73676830028077,170.61772090350166</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-45.73726490919497,170.6182042310849</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>-45.73768197796994,170.6187810501256</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>-45.73815000742827,170.61934857463476</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>-45.73852899290738,170.62006899327048</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>-45.738915687654966,170.6207754302281</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>-45.739377707288895,170.62138245745143</t>
+        </is>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>-45.73978342301856,170.62206353171004</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>-45.7402348869221,170.62267364847838</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>-45.740606089398064,170.62337946320088</t>
+        </is>
+      </c>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>-45.74098625574129,170.62408577213196</t>
+        </is>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>-45.741315312559536,170.624848066796</t>
+        </is>
+      </c>
+      <c r="O556" t="inlineStr">
+        <is>
+          <t>-45.7416214932941,170.6256445191049</t>
+        </is>
+      </c>
+      <c r="P556" t="inlineStr">
+        <is>
+          <t>-45.74018944243444,170.62845551714534</t>
+        </is>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-45.736321682821405,170.61705019809926</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-45.73685447886289,170.61752343187501</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-45.73731610438344,170.61810460647467</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>-45.73777296966087,170.61864274649182</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>-45.73820498170478,170.61927214220523</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>-45.73865714126519,170.61989283248374</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>-45.739065113699944,170.62057322923954</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>-45.73946401274096,170.6212666996214</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>-45.739865354233736,170.62195512291936</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>-45.74024183668301,170.62266489399917</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>-45.740630158309656,170.6233511114499</t>
+        </is>
+      </c>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>-45.74104973226642,170.62401298952466</t>
+        </is>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>-45.741499217414145,170.62464348171335</t>
+        </is>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>-45.74180923845612,170.625435384007</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q557"/>
+  <dimension ref="A1:Q559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27991,6 +27991,118 @@
         </is>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="C558" t="n">
+        <v>365.61</v>
+      </c>
+      <c r="D558" t="n">
+        <v>372.89</v>
+      </c>
+      <c r="E558" t="n">
+        <v>372.59</v>
+      </c>
+      <c r="F558" t="n">
+        <v>367.23</v>
+      </c>
+      <c r="G558" t="n">
+        <v>370.59</v>
+      </c>
+      <c r="H558" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="I558" t="n">
+        <v>367.59</v>
+      </c>
+      <c r="J558" t="n">
+        <v>373.5271428571429</v>
+      </c>
+      <c r="K558" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="L558" t="n">
+        <v>374.07</v>
+      </c>
+      <c r="M558" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="N558" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="O558" t="n">
+        <v>372.5571428571428</v>
+      </c>
+      <c r="P558" t="n">
+        <v>658.4371428571429</v>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>370.65</v>
+      </c>
+      <c r="C559" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="D559" t="n">
+        <v>379.9844444444445</v>
+      </c>
+      <c r="E559" t="n">
+        <v>380.62</v>
+      </c>
+      <c r="F559" t="n">
+        <v>375.8844444444445</v>
+      </c>
+      <c r="G559" t="n">
+        <v>373.09</v>
+      </c>
+      <c r="H559" t="n">
+        <v>374.76</v>
+      </c>
+      <c r="I559" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="J559" t="n">
+        <v>372.2542857142857</v>
+      </c>
+      <c r="K559" t="n">
+        <v>379.73</v>
+      </c>
+      <c r="L559" t="n">
+        <v>384.8744444444445</v>
+      </c>
+      <c r="M559" t="n">
+        <v>387.8844444444445</v>
+      </c>
+      <c r="N559" t="n">
+        <v>387.1</v>
+      </c>
+      <c r="O559" t="n">
+        <v>378.7142857142857</v>
+      </c>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28002,7 +28114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33710,6 +33822,26 @@
       </c>
       <c r="B570" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -33883,28 +34015,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.507968956005923</v>
+        <v>1.510762652022935</v>
       </c>
       <c r="J2" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3793177930019669</v>
+        <v>0.3823504691558129</v>
       </c>
       <c r="M2" t="n">
-        <v>11.06278279399045</v>
+        <v>11.03445585910527</v>
       </c>
       <c r="N2" t="n">
-        <v>197.2761322985733</v>
+        <v>196.5067880278415</v>
       </c>
       <c r="O2" t="n">
-        <v>14.04550220884157</v>
+        <v>14.01808788771998</v>
       </c>
       <c r="P2" t="n">
-        <v>323.828909543211</v>
+        <v>323.8004773376192</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33961,28 +34093,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456777275631087</v>
+        <v>1.458435895768578</v>
       </c>
       <c r="J3" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.398379690199087</v>
+        <v>0.4011691957235786</v>
       </c>
       <c r="M3" t="n">
-        <v>10.13791675873926</v>
+        <v>10.1074142641337</v>
       </c>
       <c r="N3" t="n">
-        <v>167.667296028253</v>
+        <v>166.963429882823</v>
       </c>
       <c r="O3" t="n">
-        <v>12.9486407019522</v>
+        <v>12.92143296553532</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1130358134113</v>
+        <v>330.0959212759421</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34039,28 +34171,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.329065781835572</v>
+        <v>1.332296437049203</v>
       </c>
       <c r="J4" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K4" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4280472740844191</v>
+        <v>0.4314823216729677</v>
       </c>
       <c r="M4" t="n">
-        <v>8.732276163369846</v>
+        <v>8.707813260842775</v>
       </c>
       <c r="N4" t="n">
-        <v>123.9945834916382</v>
+        <v>123.513925699119</v>
       </c>
       <c r="O4" t="n">
-        <v>11.13528551459899</v>
+        <v>11.11368191460953</v>
       </c>
       <c r="P4" t="n">
-        <v>338.7734040711638</v>
+        <v>338.740216154216</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34117,28 +34249,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.327407235275892</v>
+        <v>1.331822161111827</v>
       </c>
       <c r="J5" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4564281321629073</v>
+        <v>0.4602667106423326</v>
       </c>
       <c r="M5" t="n">
-        <v>8.266685791135735</v>
+        <v>8.248789666364287</v>
       </c>
       <c r="N5" t="n">
-        <v>110.4544229068919</v>
+        <v>110.0963951219804</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50972991598223</v>
+        <v>10.49268293250017</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8261616431027</v>
+        <v>337.781195787085</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34195,28 +34327,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.244670896420947</v>
+        <v>1.247831809869387</v>
       </c>
       <c r="J6" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K6" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4376768105092529</v>
+        <v>0.4412125342477041</v>
       </c>
       <c r="M6" t="n">
-        <v>8.164667236787679</v>
+        <v>8.145547632030805</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6851204413066</v>
+        <v>108.2915316178191</v>
       </c>
       <c r="O6" t="n">
-        <v>10.42521560646621</v>
+        <v>10.40632171412258</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2094454066897</v>
+        <v>336.1781189911943</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34273,28 +34405,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.176211513274062</v>
+        <v>1.178260508997356</v>
       </c>
       <c r="J7" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K7" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3913005624927284</v>
+        <v>0.394603471939971</v>
       </c>
       <c r="M7" t="n">
-        <v>8.521549395083818</v>
+        <v>8.488691564583586</v>
       </c>
       <c r="N7" t="n">
-        <v>118.1861875220728</v>
+        <v>117.6231240584913</v>
       </c>
       <c r="O7" t="n">
-        <v>10.871347088658</v>
+        <v>10.84541949665808</v>
       </c>
       <c r="P7" t="n">
-        <v>339.4095990624573</v>
+        <v>339.3893118515992</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34351,28 +34483,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.11288998052954</v>
+        <v>1.111534525471735</v>
       </c>
       <c r="J8" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K8" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3233460153839836</v>
+        <v>0.3248358338089756</v>
       </c>
       <c r="M8" t="n">
-        <v>9.355531880248659</v>
+        <v>9.328348022174966</v>
       </c>
       <c r="N8" t="n">
-        <v>136.3988277975321</v>
+        <v>135.8316437090604</v>
       </c>
       <c r="O8" t="n">
-        <v>11.67899087239698</v>
+        <v>11.65468333800024</v>
       </c>
       <c r="P8" t="n">
-        <v>344.0581852916463</v>
+        <v>344.0720778349521</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34429,28 +34561,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8771350431762712</v>
+        <v>0.8744748337858979</v>
       </c>
       <c r="J9" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K9" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2182210883017771</v>
+        <v>0.2187693852467353</v>
       </c>
       <c r="M9" t="n">
-        <v>9.45435263965201</v>
+        <v>9.424507287165476</v>
       </c>
       <c r="N9" t="n">
-        <v>143.4538886543081</v>
+        <v>142.8567615711459</v>
       </c>
       <c r="O9" t="n">
-        <v>11.97722374568949</v>
+        <v>11.95227014299567</v>
       </c>
       <c r="P9" t="n">
-        <v>350.3089076838235</v>
+        <v>350.3363748385074</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34507,28 +34639,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6459485511798323</v>
+        <v>0.6474141123583437</v>
       </c>
       <c r="J10" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K10" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1146639658608309</v>
+        <v>0.1161075359766138</v>
       </c>
       <c r="M10" t="n">
-        <v>10.33485510215054</v>
+        <v>10.29470414578973</v>
       </c>
       <c r="N10" t="n">
-        <v>169.0899712984475</v>
+        <v>168.3331687163511</v>
       </c>
       <c r="O10" t="n">
-        <v>13.00345997411641</v>
+        <v>12.97432729340335</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6218682048618</v>
+        <v>354.6068612227785</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34585,28 +34717,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4446370906794078</v>
+        <v>0.4495494010325703</v>
       </c>
       <c r="J11" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K11" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05552673812122844</v>
+        <v>0.05715305259865111</v>
       </c>
       <c r="M11" t="n">
-        <v>9.920106899682926</v>
+        <v>9.900146863146375</v>
       </c>
       <c r="N11" t="n">
-        <v>177.8452522819238</v>
+        <v>177.2317635127725</v>
       </c>
       <c r="O11" t="n">
-        <v>13.33586338719484</v>
+        <v>13.31284205242338</v>
       </c>
       <c r="P11" t="n">
-        <v>358.9292925162139</v>
+        <v>358.8792528631576</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34663,28 +34795,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4320142217639376</v>
+        <v>0.4416883176040473</v>
       </c>
       <c r="J12" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K12" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05212839131584412</v>
+        <v>0.05467627788084928</v>
       </c>
       <c r="M12" t="n">
-        <v>10.23636537459748</v>
+        <v>10.23818907103914</v>
       </c>
       <c r="N12" t="n">
-        <v>179.6592343696377</v>
+        <v>179.4734281077069</v>
       </c>
       <c r="O12" t="n">
-        <v>13.40370226354039</v>
+        <v>13.39676931605926</v>
       </c>
       <c r="P12" t="n">
-        <v>357.7526178905123</v>
+        <v>357.6538481670612</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34741,28 +34873,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3363921129369451</v>
+        <v>0.3463182782405658</v>
       </c>
       <c r="J13" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K13" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02898367776104493</v>
+        <v>0.03080439091692477</v>
       </c>
       <c r="M13" t="n">
-        <v>10.65422231561251</v>
+        <v>10.65650050383756</v>
       </c>
       <c r="N13" t="n">
-        <v>203.7778576326961</v>
+        <v>203.9435395058638</v>
       </c>
       <c r="O13" t="n">
-        <v>14.27507820058076</v>
+        <v>14.28088020767151</v>
       </c>
       <c r="P13" t="n">
-        <v>357.2795778628546</v>
+        <v>357.1801615586135</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34819,28 +34951,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5779265845733134</v>
+        <v>0.5847724661869209</v>
       </c>
       <c r="J14" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K14" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07124217576415359</v>
+        <v>0.07319254058407376</v>
       </c>
       <c r="M14" t="n">
-        <v>11.63771595673808</v>
+        <v>11.64182963269436</v>
       </c>
       <c r="N14" t="n">
-        <v>231.9594517845647</v>
+        <v>231.8543706553234</v>
       </c>
       <c r="O14" t="n">
-        <v>15.23021509318121</v>
+        <v>15.22676494385211</v>
       </c>
       <c r="P14" t="n">
-        <v>352.3167244426624</v>
+        <v>352.2469729263099</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34897,28 +35029,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8037859470222585</v>
+        <v>0.8117222253690102</v>
       </c>
       <c r="J15" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K15" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1281126354155231</v>
+        <v>0.1313245997163203</v>
       </c>
       <c r="M15" t="n">
-        <v>12.0473388263377</v>
+        <v>12.02848774248949</v>
       </c>
       <c r="N15" t="n">
-        <v>234.2780075967072</v>
+        <v>233.5174285949192</v>
       </c>
       <c r="O15" t="n">
-        <v>15.30614280596869</v>
+        <v>15.2812770603415</v>
       </c>
       <c r="P15" t="n">
-        <v>346.6563100007032</v>
+        <v>346.5762373978174</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34969,28 +35101,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-3.836999225084083</v>
+        <v>-3.779642939688068</v>
       </c>
       <c r="J16" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K16" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1060213350499045</v>
+        <v>0.1034211667542649</v>
       </c>
       <c r="M16" t="n">
-        <v>55.62297000835172</v>
+        <v>55.48834416745306</v>
       </c>
       <c r="N16" t="n">
-        <v>6667.297990134961</v>
+        <v>6674.483877058899</v>
       </c>
       <c r="O16" t="n">
-        <v>81.65352405214952</v>
+        <v>81.69751450967709</v>
       </c>
       <c r="P16" t="n">
-        <v>661.7427292493617</v>
+        <v>661.167929457882</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35028,7 +35160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q557"/>
+  <dimension ref="A1:Q559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55938,7 +56070,7 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-45.73921284134504,170.62037332492662</t>
+          <t>-45.739212841345044,170.62037332492662</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -75047,6 +75179,176 @@
         </is>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-45.736325013827035,170.61704256533616</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-45.736827116844616,170.61758612999924</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-45.73729826651386,170.6181393185821</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>-45.73773520535846,170.61870014676802</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>-45.738187826871275,170.61929599312285</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>-45.738592905073595,170.6199811357408</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>-45.73903219820545,170.62061777010962</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>-45.73945338852038,170.62128094946476</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>-45.73983152580061,170.62199988368758</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>-45.740252160112924,170.6226518897687</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>-45.74062494505037,170.62335725236312</t>
+        </is>
+      </c>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>-45.741066702464856,170.623993531344</t>
+        </is>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>-45.74146855480302,170.62467759248116</t>
+        </is>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>-45.74176202096714,170.62548798119377</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>-45.740144226574785,170.62850749423836</t>
+        </is>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-45.736278046598606,170.61715018721293</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-45.73679052306341,170.61766998183091</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-45.737260502950484,170.6182128055144</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-45.73768573592414,170.61877533820376</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-45.73813203602102,170.6193735607866</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>-45.738576700170135,170.62000341200974</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>-45.7389867434444,170.6206792788439</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>-45.739421187938895,170.62132413877174</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>-45.73983992634136,170.62198876835137</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>-45.740198721164376,170.62271920573318</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>-45.74054995428116,170.62344558691058</t>
+        </is>
+      </c>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>-45.740907555069974,170.62417601053605</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>-45.74129125087595,170.62487483409956</t>
+        </is>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>-45.74171834045912,170.62553663830994</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q559"/>
+  <dimension ref="A1:Q563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28096,8 +28096,238 @@
       <c r="O559" t="n">
         <v>378.7142857142857</v>
       </c>
-      <c r="P559" t="inlineStr"/>
+      <c r="P559" t="n">
+        <v>373.1642857142857</v>
+      </c>
       <c r="Q559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>360.95</v>
+      </c>
+      <c r="C560" t="n">
+        <v>369.11</v>
+      </c>
+      <c r="D560" t="n">
+        <v>374.6577777777778</v>
+      </c>
+      <c r="E560" t="n">
+        <v>373.83</v>
+      </c>
+      <c r="F560" t="n">
+        <v>373.8177777777778</v>
+      </c>
+      <c r="G560" t="n">
+        <v>371</v>
+      </c>
+      <c r="H560" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="I560" t="n">
+        <v>372.31</v>
+      </c>
+      <c r="J560" t="n">
+        <v>370.6014285714285</v>
+      </c>
+      <c r="K560" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="L560" t="n">
+        <v>378.2077777777778</v>
+      </c>
+      <c r="M560" t="n">
+        <v>377.0277777777778</v>
+      </c>
+      <c r="N560" t="n">
+        <v>373.12</v>
+      </c>
+      <c r="O560" t="n">
+        <v>369.3414285714285</v>
+      </c>
+      <c r="P560" t="n">
+        <v>365.0014285714286</v>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>363.01</v>
+      </c>
+      <c r="C561" t="n">
+        <v>371.68</v>
+      </c>
+      <c r="D561" t="n">
+        <v>373.3722222222222</v>
+      </c>
+      <c r="E561" t="n">
+        <v>373.76</v>
+      </c>
+      <c r="F561" t="n">
+        <v>370.8922222222222</v>
+      </c>
+      <c r="G561" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="H561" t="n">
+        <v>377.44</v>
+      </c>
+      <c r="I561" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="J561" t="n">
+        <v>375.2285714285715</v>
+      </c>
+      <c r="K561" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="L561" t="n">
+        <v>374.4222222222222</v>
+      </c>
+      <c r="M561" t="n">
+        <v>374.7122222222222</v>
+      </c>
+      <c r="N561" t="n">
+        <v>370.65</v>
+      </c>
+      <c r="O561" t="n">
+        <v>367.9185714285715</v>
+      </c>
+      <c r="P561" t="n">
+        <v>362.6585714285715</v>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>335.48</v>
+      </c>
+      <c r="C562" t="n">
+        <v>340.92</v>
+      </c>
+      <c r="D562" t="n">
+        <v>363.5711111111111</v>
+      </c>
+      <c r="E562" t="n">
+        <v>366.85</v>
+      </c>
+      <c r="F562" t="n">
+        <v>357.6011111111111</v>
+      </c>
+      <c r="G562" t="n">
+        <v>351.16</v>
+      </c>
+      <c r="H562" t="n">
+        <v>343.59</v>
+      </c>
+      <c r="I562" t="n">
+        <v>340.72</v>
+      </c>
+      <c r="J562" t="n">
+        <v>335.2357142857143</v>
+      </c>
+      <c r="K562" t="n">
+        <v>343.33</v>
+      </c>
+      <c r="L562" t="n">
+        <v>347.3011111111111</v>
+      </c>
+      <c r="M562" t="n">
+        <v>355.4411111111111</v>
+      </c>
+      <c r="N562" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="O562" t="n">
+        <v>353.6757142857143</v>
+      </c>
+      <c r="P562" t="n">
+        <v>341.5957142857143</v>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>339.02</v>
+      </c>
+      <c r="C563" t="n">
+        <v>350.89</v>
+      </c>
+      <c r="D563" t="n">
+        <v>362.1755555555556</v>
+      </c>
+      <c r="E563" t="n">
+        <v>367.89</v>
+      </c>
+      <c r="F563" t="n">
+        <v>364.9655555555556</v>
+      </c>
+      <c r="G563" t="n">
+        <v>352.18</v>
+      </c>
+      <c r="H563" t="n">
+        <v>349.55</v>
+      </c>
+      <c r="I563" t="n">
+        <v>346.33</v>
+      </c>
+      <c r="J563" t="n">
+        <v>346.2114285714285</v>
+      </c>
+      <c r="K563" t="n">
+        <v>347.51</v>
+      </c>
+      <c r="L563" t="n">
+        <v>353.5055555555556</v>
+      </c>
+      <c r="M563" t="n">
+        <v>369.2955555555556</v>
+      </c>
+      <c r="N563" t="n">
+        <v>374.94</v>
+      </c>
+      <c r="O563" t="n">
+        <v>369.6514285714285</v>
+      </c>
+      <c r="P563" t="n">
+        <v>371.1814285714286</v>
+      </c>
+      <c r="Q563" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28114,7 +28344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33842,6 +34072,46 @@
       </c>
       <c r="B572" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -34015,28 +34285,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.510762652022935</v>
+        <v>1.486533569305565</v>
       </c>
       <c r="J2" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3823504691558129</v>
+        <v>0.3757187670563792</v>
       </c>
       <c r="M2" t="n">
-        <v>11.03445585910527</v>
+        <v>11.05120499107917</v>
       </c>
       <c r="N2" t="n">
-        <v>196.5067880278415</v>
+        <v>197.7179247687024</v>
       </c>
       <c r="O2" t="n">
-        <v>14.01808788771998</v>
+        <v>14.06122060024315</v>
       </c>
       <c r="P2" t="n">
-        <v>323.8004773376192</v>
+        <v>324.0480437555611</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34093,28 +34363,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.458435895768578</v>
+        <v>1.440699008878582</v>
       </c>
       <c r="J3" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K3" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4011691957235786</v>
+        <v>0.3965479249836439</v>
       </c>
       <c r="M3" t="n">
-        <v>10.1074142641337</v>
+        <v>10.13707973973641</v>
       </c>
       <c r="N3" t="n">
-        <v>166.963429882823</v>
+        <v>167.7826767952766</v>
       </c>
       <c r="O3" t="n">
-        <v>12.92143296553532</v>
+        <v>12.95309525925277</v>
       </c>
       <c r="P3" t="n">
-        <v>330.0959212759421</v>
+        <v>330.2796707939389</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34171,28 +34441,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.332296437049203</v>
+        <v>1.323391304313873</v>
       </c>
       <c r="J4" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4314823216729677</v>
+        <v>0.4320466072369981</v>
       </c>
       <c r="M4" t="n">
-        <v>8.707813260842775</v>
+        <v>8.677290409251377</v>
       </c>
       <c r="N4" t="n">
-        <v>123.513925699119</v>
+        <v>122.8527222724205</v>
       </c>
       <c r="O4" t="n">
-        <v>11.11368191460953</v>
+        <v>11.08389472488892</v>
       </c>
       <c r="P4" t="n">
-        <v>338.740216154216</v>
+        <v>338.8321275349453</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34249,28 +34519,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.331822161111827</v>
+        <v>1.328669711593841</v>
       </c>
       <c r="J5" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K5" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4602667106423326</v>
+        <v>0.4639009493046544</v>
       </c>
       <c r="M5" t="n">
-        <v>8.248789666364287</v>
+        <v>8.200864341826961</v>
       </c>
       <c r="N5" t="n">
-        <v>110.0963951219804</v>
+        <v>109.1704151927397</v>
       </c>
       <c r="O5" t="n">
-        <v>10.49268293250017</v>
+        <v>10.44846472898003</v>
       </c>
       <c r="P5" t="n">
-        <v>337.781195787085</v>
+        <v>337.8134824840171</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34327,28 +34597,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.247831809869387</v>
+        <v>1.244693343649852</v>
       </c>
       <c r="J6" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K6" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4412125342477041</v>
+        <v>0.4441910403828724</v>
       </c>
       <c r="M6" t="n">
-        <v>8.145547632030805</v>
+        <v>8.120444262855138</v>
       </c>
       <c r="N6" t="n">
-        <v>108.2915316178191</v>
+        <v>107.6376095097626</v>
       </c>
       <c r="O6" t="n">
-        <v>10.40632171412258</v>
+        <v>10.37485467415147</v>
       </c>
       <c r="P6" t="n">
-        <v>336.1781189911943</v>
+        <v>336.2094357860313</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34405,28 +34675,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.178260508997356</v>
+        <v>1.163131115289712</v>
       </c>
       <c r="J7" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K7" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.394603471939971</v>
+        <v>0.3900309733767151</v>
       </c>
       <c r="M7" t="n">
-        <v>8.488691564583586</v>
+        <v>8.51212202277485</v>
       </c>
       <c r="N7" t="n">
-        <v>117.6231240584913</v>
+        <v>118.1248994643027</v>
       </c>
       <c r="O7" t="n">
-        <v>10.84541949665808</v>
+        <v>10.86852793455961</v>
       </c>
       <c r="P7" t="n">
-        <v>339.3893118515992</v>
+        <v>339.5398915872985</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34483,28 +34753,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.111534525471735</v>
+        <v>1.088905862085203</v>
       </c>
       <c r="J8" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K8" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3248358338089756</v>
+        <v>0.3148917722074294</v>
       </c>
       <c r="M8" t="n">
-        <v>9.328348022174966</v>
+        <v>9.381400216238429</v>
       </c>
       <c r="N8" t="n">
-        <v>135.8316437090604</v>
+        <v>137.8203116830769</v>
       </c>
       <c r="O8" t="n">
-        <v>11.65468333800024</v>
+        <v>11.73968959057593</v>
       </c>
       <c r="P8" t="n">
-        <v>344.0720778349521</v>
+        <v>344.305510444006</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34561,28 +34831,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8744748337858979</v>
+        <v>0.8474365928794563</v>
       </c>
       <c r="J9" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2187693852467353</v>
+        <v>0.2068602573077197</v>
       </c>
       <c r="M9" t="n">
-        <v>9.424507287165476</v>
+        <v>9.480233677343515</v>
       </c>
       <c r="N9" t="n">
-        <v>142.8567615711459</v>
+        <v>145.5000578056271</v>
       </c>
       <c r="O9" t="n">
-        <v>11.95227014299567</v>
+        <v>12.06234047793491</v>
       </c>
       <c r="P9" t="n">
-        <v>350.3363748385074</v>
+        <v>350.6170573886118</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34639,28 +34909,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6474141123583437</v>
+        <v>0.6214126448119124</v>
       </c>
       <c r="J10" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K10" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1161075359766138</v>
+        <v>0.1073158042143153</v>
       </c>
       <c r="M10" t="n">
-        <v>10.29470414578973</v>
+        <v>10.35580969681624</v>
       </c>
       <c r="N10" t="n">
-        <v>168.3331687163511</v>
+        <v>171.172026991016</v>
       </c>
       <c r="O10" t="n">
-        <v>12.97432729340335</v>
+        <v>13.0832727935718</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6068612227785</v>
+        <v>354.8745097455122</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34717,28 +34987,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4495494010325703</v>
+        <v>0.4309543375278122</v>
       </c>
       <c r="J11" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K11" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05715305259865111</v>
+        <v>0.05289700906178907</v>
       </c>
       <c r="M11" t="n">
-        <v>9.900146863146375</v>
+        <v>9.941082124020799</v>
       </c>
       <c r="N11" t="n">
-        <v>177.2317635127725</v>
+        <v>178.5727494631459</v>
       </c>
       <c r="O11" t="n">
-        <v>13.31284205242338</v>
+        <v>13.36311151877234</v>
       </c>
       <c r="P11" t="n">
-        <v>358.8792528631576</v>
+        <v>359.0696357965664</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34795,28 +35065,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4416883176040473</v>
+        <v>0.4313874724192749</v>
       </c>
       <c r="J12" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K12" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05467627788084928</v>
+        <v>0.05271560460163771</v>
       </c>
       <c r="M12" t="n">
-        <v>10.23818907103914</v>
+        <v>10.26294348476663</v>
       </c>
       <c r="N12" t="n">
-        <v>179.4734281077069</v>
+        <v>179.7213678514312</v>
       </c>
       <c r="O12" t="n">
-        <v>13.39676931605926</v>
+        <v>13.40601983630605</v>
       </c>
       <c r="P12" t="n">
-        <v>357.6538481670612</v>
+        <v>357.7596731229589</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34873,28 +35143,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3463182782405658</v>
+        <v>0.3517531283930872</v>
       </c>
       <c r="J13" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K13" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03080439091692477</v>
+        <v>0.0322564264935935</v>
       </c>
       <c r="M13" t="n">
-        <v>10.65650050383756</v>
+        <v>10.63398533853292</v>
       </c>
       <c r="N13" t="n">
-        <v>203.9435395058638</v>
+        <v>202.7781745157607</v>
       </c>
       <c r="O13" t="n">
-        <v>14.28088020767151</v>
+        <v>14.24002017258967</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1801615586135</v>
+        <v>357.1256810441763</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34951,28 +35221,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5847724661869209</v>
+        <v>0.5868205093271904</v>
       </c>
       <c r="J14" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K14" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07319254058407376</v>
+        <v>0.07482936135820184</v>
       </c>
       <c r="M14" t="n">
-        <v>11.64182963269436</v>
+        <v>11.59998831397759</v>
       </c>
       <c r="N14" t="n">
-        <v>231.8543706553234</v>
+        <v>230.2661438179514</v>
       </c>
       <c r="O14" t="n">
-        <v>15.22676494385211</v>
+        <v>15.17452285305707</v>
       </c>
       <c r="P14" t="n">
-        <v>352.2469729263099</v>
+        <v>352.2260797400143</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35029,28 +35299,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8117222253690102</v>
+        <v>0.8071456611605213</v>
       </c>
       <c r="J15" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K15" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1313245997163203</v>
+        <v>0.1321352407624247</v>
       </c>
       <c r="M15" t="n">
-        <v>12.02848774248949</v>
+        <v>11.95745606533381</v>
       </c>
       <c r="N15" t="n">
-        <v>233.5174285949192</v>
+        <v>231.7663884183835</v>
       </c>
       <c r="O15" t="n">
-        <v>15.2812770603415</v>
+        <v>15.22387560440453</v>
       </c>
       <c r="P15" t="n">
-        <v>346.5762373978174</v>
+        <v>346.6226210571824</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35101,28 +35371,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-3.779642939688068</v>
+        <v>-4.358640836914422</v>
       </c>
       <c r="J16" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K16" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1034211667542649</v>
+        <v>0.1271400352292736</v>
       </c>
       <c r="M16" t="n">
-        <v>55.48834416745306</v>
+        <v>60.08448857381325</v>
       </c>
       <c r="N16" t="n">
-        <v>6674.483877058899</v>
+        <v>7147.814585082775</v>
       </c>
       <c r="O16" t="n">
-        <v>81.69751450967709</v>
+        <v>84.54474900952025</v>
       </c>
       <c r="P16" t="n">
-        <v>661.167929457882</v>
+        <v>666.9920967026931</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35160,7 +35430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q559"/>
+  <dimension ref="A1:Q563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75342,8 +75612,360 @@
           <t>-45.74171834045912,170.62553663830994</t>
         </is>
       </c>
-      <c r="P559" t="inlineStr"/>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>-45.74214358209477,170.62620906148223</t>
+        </is>
+      </c>
       <c r="Q559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-45.73632420486856,170.61704441900727</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-45.73681046168555,170.61762429404527</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-45.73728885667835,170.6181576299005</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-45.737727566246264,170.6187117579075</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-45.73814535878662,170.61935503777403</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>-45.73859024746974,170.6199847890498</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>-45.73901391181159,170.62064251501474</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>-45.739422433990235,170.62132246749601</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>-45.73985083478592,170.621974334627</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>-45.74022226939317,170.62268954252735</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>-45.74059622584639,170.62339108187032</t>
+        </is>
+      </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>-45.740983722291816,170.62408867699742</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>-45.74139047865983,170.624764448433</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>-45.74178483414229,170.6254625688273</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>-45.74220079133313,170.62614329121547</t>
+        </is>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-45.736314402192946,170.61706688113546</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-45.73679823203174,170.6176523173448</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-45.737295699657714,170.61814431362495</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>-45.7377279974865,170.61871110244002</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-45.73816421837351,170.61932881674164</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>-45.73857384810665,170.62000733263173</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>-45.7389692407396,170.6207029632149</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>-45.73941908932605,170.62132695355172</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>-45.73982029679315,170.62201474155603</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>-45.74024055468832,170.62266650890325</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>-45.740622500370975,170.6233601320513</t>
+        </is>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>-45.74099996754805,170.62407005010178</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>-45.741408010309144,170.62474494534504</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>-45.74179492828624,170.6254513246105</t>
+        </is>
+      </c>
+      <c r="P561" t="inlineStr">
+        <is>
+          <t>-45.74221721119795,170.62612441418005</t>
+        </is>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-45.736445405532,170.61676669486923</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-45.736944606718794,170.61731690927843</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-45.737347870668266,170.61804278986568</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-45.73777056703894,170.61864639838768</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-45.73824989940858,170.61920969157052</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>-45.73871884942493,170.61980800413858</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>-45.73919030996447,170.6204038143795</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-45.73962960605668,170.6210445948808</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>-45.740084239203824,170.6216654989792</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>-45.74044432405988,170.62240982321424</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>-45.74081074045498,170.62313839531987</t>
+        </is>
+      </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>-45.74113516786368,170.6239150281454</t>
+        </is>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>-45.741516749041004,170.6246239785491</t>
+        </is>
+      </c>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>-45.741895971006244,170.62533876932375</t>
+        </is>
+      </c>
+      <c r="P562" t="inlineStr">
+        <is>
+          <t>-45.742364829635555,170.6259547045272</t>
+        </is>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-45.73642856025211,170.61680529499708</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-45.736897163539965,170.61742562268054</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-45.737355299159546,170.61802833413773</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-45.73776416004657,170.61865613677523</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-45.73820242459634,170.6192756974369</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-45.738712237839614,170.6198170928988</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-45.7391513861677,170.62045648595617</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-45.73959281486888,170.62109394183</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>-45.740011802470484,170.62176134609183</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>-45.74041612025673,170.62244535134528</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>-45.74076767717398,170.6231891217379</t>
+        </is>
+      </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>-45.74103796927422,170.62402647706693</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>-45.74137756060013,170.62477881912147</t>
+        </is>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>-45.74178263491598,170.625465018621</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>-45.74215747891739,170.62619308509807</t>
+        </is>
+      </c>
+      <c r="Q563" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q563"/>
+  <dimension ref="A1:Q564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28333,6 +28333,61 @@
         </is>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>335.64</v>
+      </c>
+      <c r="C564" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="D564" t="n">
+        <v>362.7155555555556</v>
+      </c>
+      <c r="E564" t="n">
+        <v>359.96</v>
+      </c>
+      <c r="F564" t="n">
+        <v>360.1855555555555</v>
+      </c>
+      <c r="G564" t="n">
+        <v>353.15</v>
+      </c>
+      <c r="H564" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="I564" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="J564" t="n">
+        <v>339.6071428571428</v>
+      </c>
+      <c r="K564" t="n">
+        <v>340.75</v>
+      </c>
+      <c r="L564" t="n">
+        <v>352.0755555555555</v>
+      </c>
+      <c r="M564" t="n">
+        <v>358.5455555555556</v>
+      </c>
+      <c r="N564" t="n">
+        <v>355.78</v>
+      </c>
+      <c r="O564" t="n">
+        <v>357.7171428571428</v>
+      </c>
+      <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28344,7 +28399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34112,6 +34167,16 @@
       </c>
       <c r="B576" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -34285,28 +34350,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.486533569305565</v>
+        <v>1.474271920533274</v>
       </c>
       <c r="J2" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3757187670563792</v>
+        <v>0.3710046141227361</v>
       </c>
       <c r="M2" t="n">
-        <v>11.05120499107917</v>
+        <v>11.08524645970325</v>
       </c>
       <c r="N2" t="n">
-        <v>197.7179247687024</v>
+        <v>198.9305131135696</v>
       </c>
       <c r="O2" t="n">
-        <v>14.06122060024315</v>
+        <v>14.10427286724025</v>
       </c>
       <c r="P2" t="n">
-        <v>324.0480437555611</v>
+        <v>324.1735534517063</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34363,28 +34428,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.440699008878582</v>
+        <v>1.435199446008852</v>
       </c>
       <c r="J3" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3965479249836439</v>
+        <v>0.3953894568468456</v>
       </c>
       <c r="M3" t="n">
-        <v>10.13707973973641</v>
+        <v>10.14452172871111</v>
       </c>
       <c r="N3" t="n">
-        <v>167.7826767952766</v>
+        <v>167.7279616593704</v>
       </c>
       <c r="O3" t="n">
-        <v>12.95309525925277</v>
+        <v>12.95098303834</v>
       </c>
       <c r="P3" t="n">
-        <v>330.2796707939389</v>
+        <v>330.336728048523</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34441,28 +34506,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.323391304313873</v>
+        <v>1.318535403516121</v>
       </c>
       <c r="J4" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4320466072369981</v>
+        <v>0.4309356508047613</v>
       </c>
       <c r="M4" t="n">
-        <v>8.677290409251377</v>
+        <v>8.68112267200606</v>
       </c>
       <c r="N4" t="n">
-        <v>122.8527222724205</v>
+        <v>122.8178086939805</v>
       </c>
       <c r="O4" t="n">
-        <v>11.08389472488892</v>
+        <v>11.08231964409891</v>
       </c>
       <c r="P4" t="n">
-        <v>338.8321275349453</v>
+        <v>338.8823163194198</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34519,28 +34584,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.328669711593841</v>
+        <v>1.322840754800773</v>
       </c>
       <c r="J5" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4639009493046544</v>
+        <v>0.462155999512488</v>
       </c>
       <c r="M5" t="n">
-        <v>8.200864341826961</v>
+        <v>8.210462384337049</v>
       </c>
       <c r="N5" t="n">
-        <v>109.1704151927397</v>
+        <v>109.2688270203839</v>
       </c>
       <c r="O5" t="n">
-        <v>10.44846472898003</v>
+        <v>10.45317305990788</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8134824840171</v>
+        <v>337.8732129632137</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34597,28 +34662,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.244693343649852</v>
+        <v>1.240760123154888</v>
       </c>
       <c r="J6" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4441910403828724</v>
+        <v>0.4435161938971167</v>
       </c>
       <c r="M6" t="n">
-        <v>8.120444262855138</v>
+        <v>8.120851783106778</v>
       </c>
       <c r="N6" t="n">
-        <v>107.6376095097626</v>
+        <v>107.5419296390086</v>
       </c>
       <c r="O6" t="n">
-        <v>10.37485467415147</v>
+        <v>10.37024250627769</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2094357860313</v>
+        <v>336.2486520078059</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34675,28 +34740,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.163131115289712</v>
+        <v>1.155249814881132</v>
       </c>
       <c r="J7" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3900309733767151</v>
+        <v>0.3866719594640278</v>
       </c>
       <c r="M7" t="n">
-        <v>8.51212202277485</v>
+        <v>8.534586520961039</v>
       </c>
       <c r="N7" t="n">
-        <v>118.1248994643027</v>
+        <v>118.5056003633232</v>
       </c>
       <c r="O7" t="n">
-        <v>10.86852793455961</v>
+        <v>10.88602775870626</v>
       </c>
       <c r="P7" t="n">
-        <v>339.5398915872985</v>
+        <v>339.6184380103955</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34753,28 +34818,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.088905862085203</v>
+        <v>1.078417480332272</v>
       </c>
       <c r="J8" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K8" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3148917722074294</v>
+        <v>0.3098262674589564</v>
       </c>
       <c r="M8" t="n">
-        <v>9.381400216238429</v>
+        <v>9.414993665494718</v>
       </c>
       <c r="N8" t="n">
-        <v>137.8203116830769</v>
+        <v>138.7431862962085</v>
       </c>
       <c r="O8" t="n">
-        <v>11.73968959057593</v>
+        <v>11.77892976022052</v>
       </c>
       <c r="P8" t="n">
-        <v>344.305510444006</v>
+        <v>344.4138813981372</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34831,28 +34896,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8474365928794563</v>
+        <v>0.83470319952241</v>
       </c>
       <c r="J9" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2068602573077197</v>
+        <v>0.2007171945218627</v>
       </c>
       <c r="M9" t="n">
-        <v>9.480233677343515</v>
+        <v>9.527383554808644</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5000578056271</v>
+        <v>146.9699215750792</v>
       </c>
       <c r="O9" t="n">
-        <v>12.06234047793491</v>
+        <v>12.12311517618632</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6170573886118</v>
+        <v>350.7494703643101</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34909,28 +34974,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6214126448119124</v>
+        <v>0.607430929462656</v>
       </c>
       <c r="J10" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K10" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1073158042143153</v>
+        <v>0.1022881082556528</v>
       </c>
       <c r="M10" t="n">
-        <v>10.35580969681624</v>
+        <v>10.40584286053485</v>
       </c>
       <c r="N10" t="n">
-        <v>171.172026991016</v>
+        <v>172.9892091602899</v>
       </c>
       <c r="O10" t="n">
-        <v>13.0832727935718</v>
+        <v>13.15253622539356</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8745097455122</v>
+        <v>355.0186642082475</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34987,28 +35052,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4309543375278122</v>
+        <v>0.4177764440535662</v>
       </c>
       <c r="J11" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K11" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05289700906178907</v>
+        <v>0.04957859872895731</v>
       </c>
       <c r="M11" t="n">
-        <v>9.941082124020799</v>
+        <v>9.982950187745612</v>
       </c>
       <c r="N11" t="n">
-        <v>178.5727494631459</v>
+        <v>180.1267598579034</v>
       </c>
       <c r="O11" t="n">
-        <v>13.36311151877234</v>
+        <v>13.42113109458005</v>
       </c>
       <c r="P11" t="n">
-        <v>359.0696357965664</v>
+        <v>359.2047145645807</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35065,28 +35130,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4313874724192749</v>
+        <v>0.423843683604436</v>
       </c>
       <c r="J12" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K12" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05271560460163771</v>
+        <v>0.05103674182344464</v>
       </c>
       <c r="M12" t="n">
-        <v>10.26294348476663</v>
+        <v>10.27798947815712</v>
       </c>
       <c r="N12" t="n">
-        <v>179.7213678514312</v>
+        <v>179.9563567499214</v>
       </c>
       <c r="O12" t="n">
-        <v>13.40601983630605</v>
+        <v>13.41478127849729</v>
       </c>
       <c r="P12" t="n">
-        <v>357.7596731229589</v>
+        <v>357.8371900677594</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35143,28 +35208,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3517531283930872</v>
+        <v>0.3482302987670527</v>
       </c>
       <c r="J13" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K13" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0322564264935935</v>
+        <v>0.03176508177387072</v>
       </c>
       <c r="M13" t="n">
-        <v>10.63398533853292</v>
+        <v>10.62758654577955</v>
       </c>
       <c r="N13" t="n">
-        <v>202.7781745157607</v>
+        <v>202.4435561965747</v>
       </c>
       <c r="O13" t="n">
-        <v>14.24002017258967</v>
+        <v>14.22826609944356</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1256810441763</v>
+        <v>357.1611790275612</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35221,28 +35286,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5868205093271904</v>
+        <v>0.5815464875135234</v>
       </c>
       <c r="J14" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K14" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07482936135820184</v>
+        <v>0.07382255096533574</v>
       </c>
       <c r="M14" t="n">
-        <v>11.59998831397759</v>
+        <v>11.60013666890209</v>
       </c>
       <c r="N14" t="n">
-        <v>230.2661438179514</v>
+        <v>230.0447928095091</v>
       </c>
       <c r="O14" t="n">
-        <v>15.17452285305707</v>
+        <v>15.16722759140606</v>
       </c>
       <c r="P14" t="n">
-        <v>352.2260797400143</v>
+        <v>352.2801291304726</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35299,28 +35364,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8071456611605213</v>
+        <v>0.8025288972012686</v>
       </c>
       <c r="J15" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K15" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1321352407624247</v>
+        <v>0.1312875389020852</v>
       </c>
       <c r="M15" t="n">
-        <v>11.95745606533381</v>
+        <v>11.95300880903382</v>
       </c>
       <c r="N15" t="n">
-        <v>231.7663884183835</v>
+        <v>231.4432599512205</v>
       </c>
       <c r="O15" t="n">
-        <v>15.22387560440453</v>
+        <v>15.2132593467416</v>
       </c>
       <c r="P15" t="n">
-        <v>346.6226210571824</v>
+        <v>346.6695027421333</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35374,7 +35439,7 @@
         <v>-4.358640836914422</v>
       </c>
       <c r="J16" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K16" t="n">
         <v>337</v>
@@ -35430,7 +35495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q563"/>
+  <dimension ref="A1:Q564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75971,6 +76036,89 @@
         </is>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-45.73644464416371,170.61676843950826</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-45.736874798112446,170.61747687166368</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-45.73735242475948,170.61803392767624</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-45.73781301334122,170.6185818815141</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-45.73823323881978,170.6192328553801</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-45.73870595035089,170.61982573612957</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-45.73915354134504,170.62045356957884</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-45.73960547208937,170.6210769650794</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>-45.74005538897284,170.62170367318114</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>-45.74046173214296,170.62238789434988</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>-45.74077760239868,170.62317743032293</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>-45.74111338803121,170.62394000117524</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>-45.74151355502019,170.62462753175808</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>-45.74186730002002,170.62537070706907</t>
+        </is>
+      </c>
+      <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q564"/>
+  <dimension ref="A1:Q569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28381,8 +28381,295 @@
       <c r="O564" t="n">
         <v>357.7171428571428</v>
       </c>
-      <c r="P564" t="inlineStr"/>
+      <c r="P564" t="n">
+        <v>653.0871428571429</v>
+      </c>
       <c r="Q564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="C565" t="n">
+        <v>365.35</v>
+      </c>
+      <c r="D565" t="n">
+        <v>375.8066666666667</v>
+      </c>
+      <c r="E565" t="n">
+        <v>373.72</v>
+      </c>
+      <c r="F565" t="n">
+        <v>371.8466666666667</v>
+      </c>
+      <c r="G565" t="n">
+        <v>369.72</v>
+      </c>
+      <c r="H565" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="I565" t="n">
+        <v>365.77</v>
+      </c>
+      <c r="J565" t="n">
+        <v>359.8957142857143</v>
+      </c>
+      <c r="K565" t="n">
+        <v>365.89</v>
+      </c>
+      <c r="L565" t="n">
+        <v>359.9166666666667</v>
+      </c>
+      <c r="M565" t="n">
+        <v>368.4266666666667</v>
+      </c>
+      <c r="N565" t="n">
+        <v>351.08</v>
+      </c>
+      <c r="O565" t="n">
+        <v>344.5957142857143</v>
+      </c>
+      <c r="P565" t="n">
+        <v>618.8657142857144</v>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>347.95</v>
+      </c>
+      <c r="C566" t="n">
+        <v>363.55</v>
+      </c>
+      <c r="D566" t="n">
+        <v>371.0044444444445</v>
+      </c>
+      <c r="E566" t="n">
+        <v>374.44</v>
+      </c>
+      <c r="F566" t="n">
+        <v>370.5644444444445</v>
+      </c>
+      <c r="G566" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="H566" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="I566" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="J566" t="n">
+        <v>361.6385714285714</v>
+      </c>
+      <c r="K566" t="n">
+        <v>358.58</v>
+      </c>
+      <c r="L566" t="n">
+        <v>355.4344444444445</v>
+      </c>
+      <c r="M566" t="n">
+        <v>353.9044444444444</v>
+      </c>
+      <c r="N566" t="n">
+        <v>352.31</v>
+      </c>
+      <c r="O566" t="n">
+        <v>365.9085714285715</v>
+      </c>
+      <c r="P566" t="n">
+        <v>650.6485714285715</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>338.13</v>
+      </c>
+      <c r="C567" t="n">
+        <v>345.15</v>
+      </c>
+      <c r="D567" t="n">
+        <v>358.3988888888889</v>
+      </c>
+      <c r="E567" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="F567" t="n">
+        <v>355.9988888888889</v>
+      </c>
+      <c r="G567" t="n">
+        <v>352.51</v>
+      </c>
+      <c r="H567" t="n">
+        <v>357.54</v>
+      </c>
+      <c r="I567" t="n">
+        <v>355.38</v>
+      </c>
+      <c r="J567" t="n">
+        <v>352.1014285714285</v>
+      </c>
+      <c r="K567" t="n">
+        <v>357.46</v>
+      </c>
+      <c r="L567" t="n">
+        <v>355.2488888888889</v>
+      </c>
+      <c r="M567" t="n">
+        <v>345.9888888888889</v>
+      </c>
+      <c r="N567" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="O567" t="n">
+        <v>345.9914285714286</v>
+      </c>
+      <c r="P567" t="n">
+        <v>618.7314285714285</v>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>343.51</v>
+      </c>
+      <c r="C568" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="D568" t="n">
+        <v>368.1055555555556</v>
+      </c>
+      <c r="E568" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="F568" t="n">
+        <v>365.7355555555556</v>
+      </c>
+      <c r="G568" t="n">
+        <v>363.77</v>
+      </c>
+      <c r="H568" t="n">
+        <v>366.23</v>
+      </c>
+      <c r="I568" t="n">
+        <v>362.94</v>
+      </c>
+      <c r="J568" t="n">
+        <v>363.32</v>
+      </c>
+      <c r="K568" t="n">
+        <v>357.13</v>
+      </c>
+      <c r="L568" t="n">
+        <v>362.0355555555556</v>
+      </c>
+      <c r="M568" t="n">
+        <v>351.6355555555555</v>
+      </c>
+      <c r="N568" t="n">
+        <v>343.31</v>
+      </c>
+      <c r="O568" t="n">
+        <v>364.24</v>
+      </c>
+      <c r="P568" t="n">
+        <v>639.1900000000001</v>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>332.52</v>
+      </c>
+      <c r="C569" t="n">
+        <v>337.85</v>
+      </c>
+      <c r="D569" t="n">
+        <v>355.0122222222222</v>
+      </c>
+      <c r="E569" t="n">
+        <v>355.19</v>
+      </c>
+      <c r="F569" t="n">
+        <v>355.3922222222222</v>
+      </c>
+      <c r="G569" t="n">
+        <v>354.2</v>
+      </c>
+      <c r="H569" t="n">
+        <v>357.69</v>
+      </c>
+      <c r="I569" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="J569" t="n">
+        <v>339.78</v>
+      </c>
+      <c r="K569" t="n">
+        <v>344.19</v>
+      </c>
+      <c r="L569" t="n">
+        <v>339.7022222222222</v>
+      </c>
+      <c r="M569" t="n">
+        <v>338.4722222222222</v>
+      </c>
+      <c r="N569" t="n">
+        <v>332.15</v>
+      </c>
+      <c r="O569" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="P569" t="n">
+        <v>630.53</v>
+      </c>
+      <c r="Q569" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28399,7 +28686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34177,6 +34464,56 @@
       </c>
       <c r="B577" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -34350,28 +34687,28 @@
         <v>0.0553</v>
       </c>
       <c r="I2" t="n">
-        <v>1.474271920533274</v>
+        <v>1.427150289850214</v>
       </c>
       <c r="J2" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3710046141227361</v>
+        <v>0.355367515541434</v>
       </c>
       <c r="M2" t="n">
-        <v>11.08524645970325</v>
+        <v>11.18998945380605</v>
       </c>
       <c r="N2" t="n">
-        <v>198.9305131135696</v>
+        <v>201.9754683883958</v>
       </c>
       <c r="O2" t="n">
-        <v>14.10427286724025</v>
+        <v>14.21180735826361</v>
       </c>
       <c r="P2" t="n">
-        <v>324.1735534517063</v>
+        <v>324.6584575823652</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34428,28 +34765,28 @@
         <v>0.0439</v>
       </c>
       <c r="I3" t="n">
-        <v>1.435199446008852</v>
+        <v>1.405165555697345</v>
       </c>
       <c r="J3" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3953894568468456</v>
+        <v>0.3862126395751262</v>
       </c>
       <c r="M3" t="n">
-        <v>10.14452172871111</v>
+        <v>10.19453255146021</v>
       </c>
       <c r="N3" t="n">
-        <v>167.7279616593704</v>
+        <v>169.1678861998776</v>
       </c>
       <c r="O3" t="n">
-        <v>12.95098303834</v>
+        <v>13.00645555867845</v>
       </c>
       <c r="P3" t="n">
-        <v>330.336728048523</v>
+        <v>330.6501741466116</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34506,28 +34843,28 @@
         <v>0.0535</v>
       </c>
       <c r="I4" t="n">
-        <v>1.318535403516121</v>
+        <v>1.301367855663702</v>
       </c>
       <c r="J4" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K4" t="n">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4309356508047613</v>
+        <v>0.4277491204022449</v>
       </c>
       <c r="M4" t="n">
-        <v>8.68112267200606</v>
+        <v>8.679297729415824</v>
       </c>
       <c r="N4" t="n">
-        <v>122.8178086939805</v>
+        <v>122.7408965420788</v>
       </c>
       <c r="O4" t="n">
-        <v>11.08231964409891</v>
+        <v>11.07884906215798</v>
       </c>
       <c r="P4" t="n">
-        <v>338.8823163194198</v>
+        <v>339.0608636960574</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34584,28 +34921,28 @@
         <v>0.0587</v>
       </c>
       <c r="I5" t="n">
-        <v>1.322840754800773</v>
+        <v>1.311642024404925</v>
       </c>
       <c r="J5" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.462155999512488</v>
+        <v>0.4620139662124607</v>
       </c>
       <c r="M5" t="n">
-        <v>8.210462384337049</v>
+        <v>8.186956958912242</v>
       </c>
       <c r="N5" t="n">
-        <v>109.2688270203839</v>
+        <v>108.920575607081</v>
       </c>
       <c r="O5" t="n">
-        <v>10.45317305990788</v>
+        <v>10.43650207718472</v>
       </c>
       <c r="P5" t="n">
-        <v>337.8732129632137</v>
+        <v>337.9887275464865</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34662,28 +34999,28 @@
         <v>0.0529</v>
       </c>
       <c r="I6" t="n">
-        <v>1.240760123154888</v>
+        <v>1.230004205727804</v>
       </c>
       <c r="J6" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4435161938971167</v>
+        <v>0.4435476887349423</v>
       </c>
       <c r="M6" t="n">
-        <v>8.120851783106778</v>
+        <v>8.105027120109337</v>
       </c>
       <c r="N6" t="n">
-        <v>107.5419296390086</v>
+        <v>107.0943753738027</v>
       </c>
       <c r="O6" t="n">
-        <v>10.37024250627769</v>
+        <v>10.34864123321524</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2486520078059</v>
+        <v>336.3566270468596</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34740,28 +35077,28 @@
         <v>0.0435</v>
       </c>
       <c r="I7" t="n">
-        <v>1.155249814881132</v>
+        <v>1.136121685780608</v>
       </c>
       <c r="J7" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K7" t="n">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3866719594640278</v>
+        <v>0.3820199331098196</v>
       </c>
       <c r="M7" t="n">
-        <v>8.534586520961039</v>
+        <v>8.537199026924679</v>
       </c>
       <c r="N7" t="n">
-        <v>118.5056003633232</v>
+        <v>118.4434346774481</v>
       </c>
       <c r="O7" t="n">
-        <v>10.88602775870626</v>
+        <v>10.88317208710071</v>
       </c>
       <c r="P7" t="n">
-        <v>339.6184380103955</v>
+        <v>339.810236418638</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34818,28 +35155,28 @@
         <v>0.0445</v>
       </c>
       <c r="I8" t="n">
-        <v>1.078417480332272</v>
+        <v>1.059389985235185</v>
       </c>
       <c r="J8" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K8" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3098262674589564</v>
+        <v>0.3055072286559304</v>
       </c>
       <c r="M8" t="n">
-        <v>9.414993665494718</v>
+        <v>9.408055980524617</v>
       </c>
       <c r="N8" t="n">
-        <v>138.7431862962085</v>
+        <v>138.3026180725561</v>
       </c>
       <c r="O8" t="n">
-        <v>11.77892976022052</v>
+        <v>11.76021335148968</v>
       </c>
       <c r="P8" t="n">
-        <v>344.4138813981372</v>
+        <v>344.6115897324969</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34896,28 +35233,28 @@
         <v>0.0439</v>
       </c>
       <c r="I9" t="n">
-        <v>0.83470319952241</v>
+        <v>0.8068654009781792</v>
       </c>
       <c r="J9" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K9" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2007171945218627</v>
+        <v>0.1915133058523784</v>
       </c>
       <c r="M9" t="n">
-        <v>9.527383554808644</v>
+        <v>9.569421314729421</v>
       </c>
       <c r="N9" t="n">
-        <v>146.9699215750792</v>
+        <v>147.3826767167031</v>
       </c>
       <c r="O9" t="n">
-        <v>12.12311517618632</v>
+        <v>12.14012671748953</v>
       </c>
       <c r="P9" t="n">
-        <v>350.7494703643101</v>
+        <v>351.0405337396991</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34974,28 +35311,28 @@
         <v>0.0384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.607430929462656</v>
+        <v>0.5737238802059639</v>
       </c>
       <c r="J10" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K10" t="n">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1022881082556528</v>
+        <v>0.09257768863724869</v>
       </c>
       <c r="M10" t="n">
-        <v>10.40584286053485</v>
+        <v>10.46759971330682</v>
       </c>
       <c r="N10" t="n">
-        <v>172.9892091602899</v>
+        <v>174.4847907065272</v>
       </c>
       <c r="O10" t="n">
-        <v>13.15253622539356</v>
+        <v>13.20926912083054</v>
       </c>
       <c r="P10" t="n">
-        <v>355.0186642082475</v>
+        <v>355.3680998712496</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35052,28 +35389,28 @@
         <v>0.0562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4177764440535662</v>
+        <v>0.388458291997826</v>
       </c>
       <c r="J11" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K11" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04957859872895731</v>
+        <v>0.04355475212084836</v>
       </c>
       <c r="M11" t="n">
-        <v>9.982950187745612</v>
+        <v>10.01304923699033</v>
       </c>
       <c r="N11" t="n">
-        <v>180.1267598579034</v>
+        <v>180.6128672850601</v>
       </c>
       <c r="O11" t="n">
-        <v>13.42113109458005</v>
+        <v>13.43922867150716</v>
       </c>
       <c r="P11" t="n">
-        <v>359.2047145645807</v>
+        <v>359.5069516666441</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35130,28 +35467,28 @@
         <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.423843683604436</v>
+        <v>0.3923871258948017</v>
       </c>
       <c r="J12" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K12" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05103674182344464</v>
+        <v>0.04436171754899532</v>
       </c>
       <c r="M12" t="n">
-        <v>10.27798947815712</v>
+        <v>10.3257598544125</v>
       </c>
       <c r="N12" t="n">
-        <v>179.9563567499214</v>
+        <v>180.8809074053002</v>
       </c>
       <c r="O12" t="n">
-        <v>13.41478127849729</v>
+        <v>13.44919727735824</v>
       </c>
       <c r="P12" t="n">
-        <v>357.8371900677594</v>
+        <v>358.1622172327978</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35208,28 +35545,28 @@
         <v>0.0515</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3482302987670527</v>
+        <v>0.3157687340042599</v>
       </c>
       <c r="J13" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K13" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03176508177387072</v>
+        <v>0.02645481425367702</v>
       </c>
       <c r="M13" t="n">
-        <v>10.62758654577955</v>
+        <v>10.68409888547059</v>
       </c>
       <c r="N13" t="n">
-        <v>202.4435561965747</v>
+        <v>203.5953238366594</v>
       </c>
       <c r="O13" t="n">
-        <v>14.22826609944356</v>
+        <v>14.26868332526374</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1611790275612</v>
+        <v>357.4902163077381</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35286,28 +35623,28 @@
         <v>0.0429</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5815464875135234</v>
+        <v>0.5301732902979089</v>
       </c>
       <c r="J14" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K14" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07382255096533574</v>
+        <v>0.0618425830891205</v>
       </c>
       <c r="M14" t="n">
-        <v>11.60013666890209</v>
+        <v>11.73350359284676</v>
       </c>
       <c r="N14" t="n">
-        <v>230.0447928095091</v>
+        <v>234.0246651192588</v>
       </c>
       <c r="O14" t="n">
-        <v>15.16722759140606</v>
+        <v>15.2978647241783</v>
       </c>
       <c r="P14" t="n">
-        <v>352.2801291304726</v>
+        <v>352.8095343147746</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35364,28 +35701,28 @@
         <v>0.0415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8025288972012686</v>
+        <v>0.7698086232164325</v>
       </c>
       <c r="J15" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K15" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1312875389020852</v>
+        <v>0.1231713672691707</v>
       </c>
       <c r="M15" t="n">
-        <v>11.95300880903382</v>
+        <v>11.97973004557308</v>
       </c>
       <c r="N15" t="n">
-        <v>231.4432599512205</v>
+        <v>232.1488321875435</v>
       </c>
       <c r="O15" t="n">
-        <v>15.2132593467416</v>
+        <v>15.2364310843302</v>
       </c>
       <c r="P15" t="n">
-        <v>346.6695027421333</v>
+        <v>347.003434188701</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35436,28 +35773,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-4.358640836914422</v>
+        <v>-4.086993335723279</v>
       </c>
       <c r="J16" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K16" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1271400352292736</v>
+        <v>0.1156239163170123</v>
       </c>
       <c r="M16" t="n">
-        <v>60.08448857381325</v>
+        <v>59.25298513241486</v>
       </c>
       <c r="N16" t="n">
-        <v>7147.814585082775</v>
+        <v>7136.394046612583</v>
       </c>
       <c r="O16" t="n">
-        <v>84.54474900952025</v>
+        <v>84.47718062656082</v>
       </c>
       <c r="P16" t="n">
-        <v>666.9920967026931</v>
+        <v>664.2385763489331</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35495,7 +35832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q564"/>
+  <dimension ref="A1:Q569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76112,8 +76449,447 @@
           <t>-45.74186730002002,170.62537070706907</t>
         </is>
       </c>
-      <c r="P564" t="inlineStr"/>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>-45.74018172289955,170.62846439100844</t>
+        </is>
+      </c>
       <c r="Q564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-45.73640238818018,170.61686526690167</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-45.73682835408449,170.61758329495493</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-45.73728274117077,170.61816953052778</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-45.73772824390949,170.61871072788716</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-45.7381580655504,170.61933737119358</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-45.738598544378895,170.61997338359618</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-45.739032459439606,170.62061741661086</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>-45.739465324373015,170.6212649403811</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>-45.73992148978054,170.62188084587274</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>-45.74029210434961,170.6226015727009</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>-45.74072317945292,170.62324153774284</t>
+        </is>
+      </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>-45.74104406513917,170.62401948749968</t>
+        </is>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>-45.74154691478722,170.62459042044418</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>-45.7419603869441,170.62526701370362</t>
+        </is>
+      </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t>-45.74042156879992,170.62818867858613</t>
+        </is>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-45.73638606630784,170.61690266753416</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-45.736836919589194,170.6175636677217</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-45.73730830327408,170.6181197872697</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-45.73772380829544,170.61871746983783</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-45.73816633139179,170.6193258789492</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-45.738615656750206,170.61994985983745</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-45.739018156867814,170.6206367706632</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-45.73947922767086,170.62124629242885</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>-45.739909987371746,170.62189606556862</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>-45.74034142735218,170.6225394412221</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>-45.74075428930083,170.62320489196932</t>
+        </is>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>-45.7411459486447,170.62390266675655</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>-45.741538184466485,170.6246001325583</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>-45.741809187782714,170.6254354404539</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>-45.74019881400888,170.62844474420316</t>
+        </is>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-45.73643279536613,170.6167955904473</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-45.736924477880734,170.61736303344213</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-45.7373754022087,170.61798921388038</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-45.73779859762025,170.6186037929161</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-45.7382602281116,170.6191953311967</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-45.738710098797135,170.61982003337963</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-45.739099204728184,170.62052709756884</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-45.73953346361763,170.62117354773403</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>-45.73997293003461,170.62181278132</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>-45.74034898436166,170.6225299217519</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>-45.740755577189674,170.6232033749025</t>
+        </is>
+      </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>-45.74120148172656,170.62383899167395</t>
+        </is>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>-45.741612285696924,170.6245176979317</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>-45.741950485378474,170.625278043488</t>
+        </is>
+      </c>
+      <c r="P567" t="inlineStr">
+        <is>
+          <t>-45.74042250995962,170.62818759667923</t>
+        </is>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-45.736407194326745,170.61685425388333</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-45.73685714368363,170.6175173256197</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-45.737323733972836,170.6180897594459</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-45.73774038024021,170.61869228115563</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-45.7381974607972,170.619282598768</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-45.7386371120266,170.61992036601353</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-45.739042451645204,170.6206038952807</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-45.73948388396328,170.62124004712206</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-45.73989889037366,170.62191074882665</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>-45.74035121098037,170.62252711690752</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>-45.74070847283471,170.6232588613503</t>
+        </is>
+      </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>-45.74116186646913,170.62388441515267</t>
+        </is>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>-45.7416020648414,170.62452906823808</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>-45.74182102508856,170.6254222544528</t>
+        </is>
+      </c>
+      <c r="P568" t="inlineStr">
+        <is>
+          <t>-45.74027912315018,170.6283524259249</t>
+        </is>
+      </c>
+      <c r="Q568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-45.73645949084038,170.61673441903855</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-45.73695921557969,170.61728343380105</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-45.73739342929118,170.6179541333788</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-45.7378423992201,170.61853721592902</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-45.73826413897921,170.61918989377222</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-45.73869914430561,170.61983509220195</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-45.73909822510122,170.62052842319235</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>-45.73955838459224,170.62114012207118</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>-45.74005424816277,170.6217051826831</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>-45.74043852136451,170.62241713283268</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>-45.740863482144306,170.6230762680688</t>
+        </is>
+      </c>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>-45.74125421629209,170.6237785252545</t>
+        </is>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>-45.74168127643949,170.62444094825415</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>-45.741953971702635,170.62527415992056</t>
+        </is>
+      </c>
+      <c r="P569" t="inlineStr">
+        <is>
+          <t>-45.74033981802412,170.62828265472163</t>
+        </is>
+      </c>
+      <c r="Q569" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0498/nzd0498.xlsx
+++ b/data/nzd0498/nzd0498.xlsx
@@ -34678,13 +34678,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0438</v>
+        <v>0.0495</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0553</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>1.427150289850214</v>
@@ -34756,13 +34756,13 @@
         <v>0.07146717575720631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.035</v>
+        <v>0.0444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0439</v>
+        <v>0.0551</v>
       </c>
       <c r="I3" t="n">
         <v>1.405165555697345</v>
@@ -34837,10 +34837,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.043</v>
+        <v>0.0423</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0535</v>
+        <v>0.0521</v>
       </c>
       <c r="I4" t="n">
         <v>1.301383778963058</v>
@@ -34912,13 +34912,13 @@
         <v>0.2139159774069978</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0455</v>
+        <v>0.0471</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0587</v>
+        <v>0.0689</v>
       </c>
       <c r="I5" t="n">
         <v>1.311642024404925</v>
@@ -34990,13 +34990,13 @@
         <v>0.2853831531625242</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0433</v>
+        <v>0.0449</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0529</v>
+        <v>0.0645</v>
       </c>
       <c r="I6" t="n">
         <v>1.230020345138241</v>
@@ -35068,13 +35068,13 @@
         <v>0.3568503289195422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0377</v>
+        <v>0.0383</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0435</v>
+        <v>0.0492</v>
       </c>
       <c r="I7" t="n">
         <v>1.136121685780608</v>
@@ -35146,13 +35146,13 @@
         <v>0.4283157234884694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.037</v>
+        <v>0.0596</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0445</v>
+        <v>0.1143</v>
       </c>
       <c r="I8" t="n">
         <v>1.059389985235185</v>
@@ -35224,13 +35224,13 @@
         <v>0.4997828992445147</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0362</v>
+        <v>0.0475</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0439</v>
+        <v>0.0675</v>
       </c>
       <c r="I9" t="n">
         <v>0.8068654009781792</v>
@@ -35302,13 +35302,13 @@
         <v>0.5712486325221798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0326</v>
+        <v>0.0427</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0384</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0.5737019872803962</v>
@@ -35380,13 +35380,13 @@
         <v>0.6427158082791018</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0416</v>
+        <v>0.0337</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0562</v>
+        <v>0.0578</v>
       </c>
       <c r="I11" t="n">
         <v>0.3884582919978264</v>
@@ -35458,13 +35458,13 @@
         <v>0.7141454395690293</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0396</v>
+        <v>0.0306</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0491</v>
+        <v>0.0523</v>
       </c>
       <c r="I12" t="n">
         <v>0.392389989836099</v>
@@ -35539,10 +35539,10 @@
         <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0425</v>
+        <v>0.0346</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0515</v>
+        <v>0.0655</v>
       </c>
       <c r="I13" t="n">
         <v>0.3157729687963581</v>
@@ -35614,13 +35614,13 @@
         <v>0.8570797910820426</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0365</v>
+        <v>0.0288</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0429</v>
+        <v>0.0456</v>
       </c>
       <c r="I14" t="n">
         <v>0.5301732902979089</v>
@@ -35695,10 +35695,10 @@
         <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0332</v>
+        <v>0.0281</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0415</v>
+        <v>0.0488</v>
       </c>
       <c r="I15" t="n">
         <v>0.7697770122136066</v>
@@ -35769,9 +35769,15 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I16" t="n">
         <v>-4.087015831444026</v>
       </c>
